--- a/y2s1/statistics-ii/lectures/c10-tables.xlsx
+++ b/y2s1/statistics-ii/lectures/c10-tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user300\repo\dco-1820\y2s1\statistics-ii\lectures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C213A262-5397-4F9F-AE92-447E1997F60D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07E55338-A461-498D-928F-4FEDD70EC287}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="10" xr2:uid="{CE997910-302B-4DD6-93AE-F6BF8FE5255E}"/>
+    <workbookView xWindow="10200" yWindow="150" windowWidth="15375" windowHeight="7875" firstSheet="7" activeTab="7" xr2:uid="{CE997910-302B-4DD6-93AE-F6BF8FE5255E}"/>
   </bookViews>
   <sheets>
     <sheet name="EX4" sheetId="1" r:id="rId1"/>
@@ -19,12 +19,18 @@
     <sheet name="EX7" sheetId="4" r:id="rId4"/>
     <sheet name="EX9" sheetId="5" r:id="rId5"/>
     <sheet name="EX10" sheetId="6" r:id="rId6"/>
-    <sheet name="T10Q1" sheetId="7" r:id="rId7"/>
-    <sheet name="T10Q2ND" sheetId="8" r:id="rId8"/>
-    <sheet name="T10Q3" sheetId="9" r:id="rId9"/>
-    <sheet name="T10Q4(4f wrong)" sheetId="10" r:id="rId10"/>
-    <sheet name="T10Q5(f wrong)" sheetId="11" r:id="rId11"/>
+    <sheet name="T10Q1-Organized" sheetId="7" r:id="rId7"/>
+    <sheet name="T10Q1-ExamShortcutFormat" sheetId="13" r:id="rId8"/>
+    <sheet name="T10Q2" sheetId="8" r:id="rId9"/>
+    <sheet name="T10Q3-Organized" sheetId="9" r:id="rId10"/>
+    <sheet name="T10Q3-ExamShortcutFormat" sheetId="14" r:id="rId11"/>
+    <sheet name="T10Q4-OrganizedFormat" sheetId="10" r:id="rId12"/>
+    <sheet name="T10Q4-ExamShortcutFormat" sheetId="15" r:id="rId13"/>
+    <sheet name="T10Q5" sheetId="11" r:id="rId14"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId15"/>
+  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -41,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="201">
   <si>
     <t>Year</t>
   </si>
@@ -483,9 +489,6 @@
     <t>Q4</t>
   </si>
   <si>
-    <t>Q2a</t>
-  </si>
-  <si>
     <t>Q2b</t>
   </si>
   <si>
@@ -576,10 +579,103 @@
     <t>5c</t>
   </si>
   <si>
-    <t>Mean Daily Increase</t>
+    <t>Y-S</t>
   </si>
   <si>
-    <t>Week 4 Monday</t>
+    <t>©</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>3SMT</t>
+  </si>
+  <si>
+    <t>T=3SMA</t>
+  </si>
+  <si>
+    <t>Deseasonalized Y</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>E</t>
+  </si>
+  <si>
+    <t>Average shift variation</t>
+  </si>
+  <si>
+    <t>ACITPS</t>
+  </si>
+  <si>
+    <t>135 components</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average change in trend per quarter </t>
+  </si>
+  <si>
+    <t>Q2f</t>
+  </si>
+  <si>
+    <t>Q2a&amp;e</t>
+  </si>
+  <si>
+    <t>Sales (RM)</t>
+  </si>
+  <si>
+    <t>5DMA, T</t>
+  </si>
+  <si>
+    <t>Averages</t>
+  </si>
+  <si>
+    <t>Average daily variation</t>
+  </si>
+  <si>
+    <t>Average change in trend per day</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>Forecast cash sales (RM)</t>
+  </si>
+  <si>
+    <t>(b)</t>
+  </si>
+  <si>
+    <t>Y/S</t>
+  </si>
+  <si>
+    <t>(a)</t>
+  </si>
+  <si>
+    <t>c)</t>
+  </si>
+  <si>
+    <t>Avg Q Var</t>
+  </si>
+  <si>
+    <t>f)</t>
+  </si>
+  <si>
+    <t>Average change in trend per quarter</t>
+  </si>
+  <si>
+    <t>Total quarterly exports (in RM1,000,000)</t>
+  </si>
+  <si>
+    <t>Test*S (RM'000)</t>
+  </si>
+  <si>
+    <t>Tues</t>
   </si>
 </sst>
 </file>
@@ -814,7 +910,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -853,6 +949,18 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -892,16 +1000,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -972,6 +1074,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'T10Q1-Organized'!$B$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Number of components produced</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
@@ -998,7 +1111,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>T10Q1!$B$25:$P$26</c:f>
+              <c:f>'T10Q1-Organized'!$B$25:$P$26</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="15"/>
                 <c:lvl>
@@ -1070,7 +1183,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>T10Q1!$B$27:$P$27</c:f>
+              <c:f>'T10Q1-Organized'!$B$27:$P$27</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1129,7 +1242,107 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'T10Q1-Organized'!$E$48</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Deseasonalized data</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'T10Q1-Organized'!$E$49:$E$63</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>125.40555555555555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>142.1888888888889</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>117.40555555555555</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>129.40555555555557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>144.1888888888889</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>103.40555555555555</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>113.40555555555555</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>129.1888888888889</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>105.40555555555555</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>118.40555555555555</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>146.1888888888889</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>127.40555555555555</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>140.40555555555557</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>153.1888888888889</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>133.40555555555557</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6891-4986-B053-1E6F1A009A3D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -1257,6 +1470,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1356,7 +1600,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>T10Q1!$E$48</c:f>
+              <c:f>'T10Q1-Organized'!$E$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1391,7 +1635,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>T10Q1!$A$49:$B$63</c:f>
+              <c:f>'T10Q1-Organized'!$A$49:$B$63</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="15"/>
                 <c:lvl>
@@ -1463,7 +1707,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>T10Q1!$E$49:$E$63</c:f>
+              <c:f>'T10Q1-Organized'!$E$49:$E$63</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1708,36 +1952,6 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -1749,7 +1963,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>T10Q2ND!$C$3</c:f>
+              <c:f>T10Q2!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1784,7 +1998,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>T10Q2ND!$A$4:$B$15</c:f>
+              <c:f>T10Q2!$A$4:$B$15</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="12"/>
                 <c:lvl>
@@ -1841,7 +2055,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>T10Q2ND!$C$4:$C$15</c:f>
+              <c:f>T10Q2!$C$4:$C$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="12"/>
@@ -1888,6 +2102,96 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-6EAA-47A8-99AF-4503793A1BE0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>T10Q2!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y-S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>T10Q2!$M$4:$M$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>3145</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3253</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2281</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2521</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3081</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4149</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4841</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5017</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4937</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4789</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4585</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>7577</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5CB1-444B-B3DE-CF9436B860C0}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2118,7 +2422,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T10Q4(4f wrong)'!$C$2</c:f>
+              <c:f>'T10Q4-OrganizedFormat'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2153,7 +2457,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'T10Q4(4f wrong)'!$A$3:$B$18</c:f>
+              <c:f>'T10Q4-OrganizedFormat'!$A$3:$B$18</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="16"/>
                 <c:lvl>
@@ -2225,7 +2529,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T10Q4(4f wrong)'!$C$3:$C$18</c:f>
+              <c:f>'T10Q4-OrganizedFormat'!$C$3:$C$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="16"/>
@@ -2478,7 +2782,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T10Q4(4f wrong)'!$C$50</c:f>
+              <c:f>'T10Q4-OrganizedFormat'!$C$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2501,7 +2805,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'T10Q4(4f wrong)'!$A$51:$B$64</c:f>
+              <c:f>'T10Q4-OrganizedFormat'!$A$51:$B$64</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="14"/>
                 <c:lvl>
@@ -2567,7 +2871,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T10Q4(4f wrong)'!$C$51:$C$64</c:f>
+              <c:f>'T10Q4-OrganizedFormat'!$C$51:$C$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2628,7 +2932,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T10Q4(4f wrong)'!$E$50</c:f>
+              <c:f>'T10Q4-OrganizedFormat'!$E$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2651,51 +2955,51 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'T10Q4(4f wrong)'!$E$51:$E$64</c:f>
+              <c:f>'T10Q4-OrganizedFormat'!$E$51:$E$64</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
-                  <c:v>1.7981883311060043</c:v>
+                  <c:v>2.9939732353556114</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.9060996425193677</c:v>
+                  <c:v>3.4341224326725377</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.7969914370403375</c:v>
+                  <c:v>3.5357839739115642</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2987205893342901</c:v>
+                  <c:v>3.8688127496306088</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8981883311060042</c:v>
+                  <c:v>4.2137401090190076</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4.2060996425193684</c:v>
+                  <c:v>4.5229905210809038</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.1969914370403369</c:v>
+                  <c:v>4.8050397594182801</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.2987205893342892</c:v>
+                  <c:v>5.1168168624146757</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>3.9981883311060047</c:v>
+                  <c:v>5.4335069826824061</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.6060996425193679</c:v>
+                  <c:v>5.6956176932129896</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5.4969914370403368</c:v>
+                  <c:v>5.9836344173888012</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>4.1987205893342896</c:v>
+                  <c:v>6.2400205639203365</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4.9981883311060047</c:v>
+                  <c:v>6.5423859587400397</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>7.1060996425193688</c:v>
+                  <c:v>6.9520039490687973</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2934,7 +3238,457 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T10Q5(f wrong)'!$C$2</c:f>
+              <c:f>'T10Q4-ExamShortcutFormat'!$C$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total quarterly export (RM'000,000)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'T10Q4-ExamShortcutFormat'!$A$3:$B$16</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="14"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>2008</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>2009</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>2010</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>2011</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'T10Q4-ExamShortcutFormat'!$C$3:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.0999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.9000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.6</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.9</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.3000000000000007</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-793E-4309-AB66-1D60101EE145}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'T10Q4-ExamShortcutFormat'!$J$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Y/S</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'T10Q4-ExamShortcutFormat'!$J$3:$J$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2.9939731018467457</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4341222795363016</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5357838162419823</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8688125771104285</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.2137399211176412</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.522990319389276</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.8050395451493602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1168166342428245</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.4335067403885384</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.69561743923094</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.9836341505633541</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.2400202856619815</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.5423856669984435</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.9520036390612949</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-793E-4309-AB66-1D60101EE145}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="368948672"/>
+        <c:axId val="356003936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="368948672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="356003936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="356003936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="368948672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>T10Q5!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2957,7 +3711,7 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>'T10Q5(f wrong)'!$A$3:$B$23</c:f>
+              <c:f>T10Q5!$A$3:$B$23</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="21"/>
                 <c:lvl>
@@ -3041,7 +3795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'T10Q5(f wrong)'!$C$3:$C$23</c:f>
+              <c:f>T10Q5!$C$3:$C$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
@@ -3123,14 +3877,14 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'T10Q5(f wrong)'!$G$2:$G$3</c:f>
+              <c:f>T10Q5!$G$2:$G$3</c:f>
               <c:strCache>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
                   <c:v>Unseasonalized Daily revenue</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.633139718</c:v>
+                  <c:v>10.25304399</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3149,72 +3903,72 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'T10Q5(f wrong)'!$G$3:$G$23</c:f>
+              <c:f>T10Q5!$G$3:$G$23</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>6.6331397184536991</c:v>
+                  <c:v>10.253043988077719</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>6.0401833148174564</c:v>
+                  <c:v>10.904916447160467</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.4438296538510702</c:v>
+                  <c:v>11.605556580565727</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.6210572356715982</c:v>
+                  <c:v>12.242276222243595</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11.600785299260432</c:v>
+                  <c:v>12.609902547144388</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20.007644779419657</c:v>
+                  <c:v>12.82236715797683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>19.473359998526085</c:v>
+                  <c:v>13.196462559217819</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.0831397184536993</c:v>
+                  <c:v>13.670725317436961</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7.9301833148174552</c:v>
+                  <c:v>14.00420849003765</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>11.03382965385107</c:v>
+                  <c:v>14.858629258451575</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>8.7210572356715996</c:v>
+                  <c:v>15.807987743285418</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>15.170785299260434</c:v>
+                  <c:v>16.182708268835299</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>26.377644779419658</c:v>
+                  <c:v>16.586352355963577</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>25.563359998526085</c:v>
+                  <c:v>17.010722501583103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>11.533139718453699</c:v>
+                  <c:v>17.088406646796201</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>10.240183314817456</c:v>
+                  <c:v>17.792232097998657</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>14.04382965385107</c:v>
+                  <c:v>18.639227235454047</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>10.821057235671599</c:v>
+                  <c:v>19.373699264327239</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>18.530785299260433</c:v>
+                  <c:v>19.545348948073801</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31.837644779419659</c:v>
+                  <c:v>19.812625382809362</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31.233359998526083</c:v>
+                  <c:v>20.561930034130089</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3598,6 +4352,46 @@
 </file>
 
 <file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6166,6 +6960,509 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -8663,6 +9960,958 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="TextBox 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D9D4D93-7FD7-4CF8-A636-B829AC9B4396}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="714375"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.45</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="TextBox 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09CFF2E9-2023-4762-ABE4-639DD90D3AE6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="914400"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>3.725</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="16" name="TextBox 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF318426-6508-4B55-A101-82001F35C58D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1104900"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.05</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="17" name="TextBox 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{48C29910-6E53-4FC6-BED1-B46BC837C02E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1295400"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="TextBox 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{663BE3C0-A468-44CD-969E-3FC14F1F4A89}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="1495425"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.65</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="19" name="TextBox 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DF97200B-B429-4BE5-B98F-DCF65C41FB09}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1695450"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>4.925</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="TextBox 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C6F0F2AC-83C1-48CA-96CD-F643698A222C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="1885950"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.275</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="TextBox 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{805EF939-09C3-42B8-8830-7367E992E55C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="2085975"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="22" name="TextBox 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74603312-9748-4449-912D-66137164BCE0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838325" y="2238375"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>5.825</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="TextBox 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{64C68C95-992F-4F0E-B18E-5AD7C4D9C881}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="2438400"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6.075</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="24" name="TextBox 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CF0782F4-D19A-4CD1-8729-9BD3D959FDFD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1828800" y="2628900"/>
+          <a:ext cx="1866900" cy="133350"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-MY" sz="1100" b="0" i="0" u="none" strike="noStrike">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>6.45</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-MY"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-MY" sz="1100" b="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>80962</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>166687</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>385762</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="26" name="Chart 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AEB41C4-1494-4EE8-B009-4AC55B390966}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>23</xdr:row>
@@ -8698,6 +10947,202 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+      <sheetName val="Sheet3"/>
+      <sheetName val="Sheet4"/>
+      <sheetName val="Sheet5"/>
+      <sheetName val="Sheet6"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="C2" t="str">
+            <v>Total quarterly export (RM'000,000)</v>
+          </cell>
+          <cell r="J2" t="str">
+            <v>Y/S</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3">
+            <v>2008</v>
+          </cell>
+          <cell r="B3" t="str">
+            <v>Q1</v>
+          </cell>
+          <cell r="C3">
+            <v>2.7</v>
+          </cell>
+          <cell r="J3">
+            <v>2.9939731018467457</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="B4" t="str">
+            <v>Q2</v>
+          </cell>
+          <cell r="C4">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="J4">
+            <v>3.4341222795363016</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="B5" t="str">
+            <v>Q3</v>
+          </cell>
+          <cell r="C5">
+            <v>3.9</v>
+          </cell>
+          <cell r="J5">
+            <v>3.5357838162419823</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6" t="str">
+            <v>Q4</v>
+          </cell>
+          <cell r="C6">
+            <v>3.1</v>
+          </cell>
+          <cell r="J6">
+            <v>3.8688125771104285</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7">
+            <v>2009</v>
+          </cell>
+          <cell r="B7" t="str">
+            <v>Q1</v>
+          </cell>
+          <cell r="C7">
+            <v>3.8</v>
+          </cell>
+          <cell r="J7">
+            <v>4.2137399211176412</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="B8" t="str">
+            <v>Q2</v>
+          </cell>
+          <cell r="C8">
+            <v>5.4</v>
+          </cell>
+          <cell r="J8">
+            <v>4.522990319389276</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="B9" t="str">
+            <v>Q3</v>
+          </cell>
+          <cell r="C9">
+            <v>5.3</v>
+          </cell>
+          <cell r="J9">
+            <v>4.8050395451493602</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="B10" t="str">
+            <v>Q4</v>
+          </cell>
+          <cell r="C10">
+            <v>4.0999999999999996</v>
+          </cell>
+          <cell r="J10">
+            <v>5.1168166342428245</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11">
+            <v>2010</v>
+          </cell>
+          <cell r="B11" t="str">
+            <v>Q1</v>
+          </cell>
+          <cell r="C11">
+            <v>4.9000000000000004</v>
+          </cell>
+          <cell r="J11">
+            <v>5.4335067403885384</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="B12" t="str">
+            <v>Q2</v>
+          </cell>
+          <cell r="C12">
+            <v>6.8</v>
+          </cell>
+          <cell r="J12">
+            <v>5.69561743923094</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="B13" t="str">
+            <v>Q3</v>
+          </cell>
+          <cell r="C13">
+            <v>6.6</v>
+          </cell>
+          <cell r="J13">
+            <v>5.9836341505633541</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="B14" t="str">
+            <v>Q4</v>
+          </cell>
+          <cell r="C14">
+            <v>5</v>
+          </cell>
+          <cell r="J14">
+            <v>6.2400202856619815</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15">
+            <v>2011</v>
+          </cell>
+          <cell r="B15" t="str">
+            <v>Q1</v>
+          </cell>
+          <cell r="C15">
+            <v>5.9</v>
+          </cell>
+          <cell r="J15">
+            <v>6.5423856669984435</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="B16" t="str">
+            <v>Q2</v>
+          </cell>
+          <cell r="C16">
+            <v>8.3000000000000007</v>
+          </cell>
+          <cell r="J16">
+            <v>6.9520036390612949</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="4"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8999,7 +11444,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D773CCB-CE97-4C7D-AA0B-EE5382F04DD5}">
   <dimension ref="A1:N8"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -9015,24 +11460,24 @@
     </row>
     <row r="2" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4"/>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="30" t="s">
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="40" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="30" t="s">
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="32"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="42"/>
       <c r="N2" s="7" t="s">
         <v>8</v>
       </c>
@@ -9352,11 +11797,1564 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F2D3D-F311-44E1-8E23-268AB7BB99F8}">
+  <dimension ref="A1:P47"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:F6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>306</v>
+      </c>
+      <c r="C4">
+        <v>309</v>
+      </c>
+      <c r="D4">
+        <v>310</v>
+      </c>
+      <c r="E4">
+        <v>306</v>
+      </c>
+      <c r="F4">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>302</v>
+      </c>
+      <c r="C5">
+        <v>310</v>
+      </c>
+      <c r="D5">
+        <v>312</v>
+      </c>
+      <c r="E5">
+        <v>305</v>
+      </c>
+      <c r="F5">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="B6">
+        <v>308</v>
+      </c>
+      <c r="C6">
+        <v>315</v>
+      </c>
+      <c r="D6">
+        <v>317</v>
+      </c>
+      <c r="E6">
+        <v>317</v>
+      </c>
+      <c r="F6">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="48">
+        <v>1</v>
+      </c>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48">
+        <v>2</v>
+      </c>
+      <c r="H9" s="48"/>
+      <c r="I9" s="48"/>
+      <c r="J9" s="48"/>
+      <c r="K9" s="48"/>
+      <c r="L9" s="48">
+        <v>3</v>
+      </c>
+      <c r="M9" s="48"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="48"/>
+      <c r="P9" s="48"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B10" t="s">
+        <v>16</v>
+      </c>
+      <c r="C10" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" t="s">
+        <v>20</v>
+      </c>
+      <c r="G10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
+      </c>
+      <c r="I10" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="L10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N10" t="s">
+        <v>18</v>
+      </c>
+      <c r="O10" t="s">
+        <v>19</v>
+      </c>
+      <c r="P10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11">
+        <f t="shared" ref="B11:F11" si="0">B4</f>
+        <v>306</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>309</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>310</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>306</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>312</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ref="G11:K11" si="1">B5</f>
+        <v>302</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>310</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>312</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>305</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ref="L11:P11" si="2">B6</f>
+        <v>308</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="2"/>
+        <v>315</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="2"/>
+        <v>317</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="2"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="30">
+        <f>SUM(B11:F11)/5</f>
+        <v>308.60000000000002</v>
+      </c>
+      <c r="E12" s="30">
+        <f t="shared" ref="E12:M12" si="3">SUM(C11:G11)/5</f>
+        <v>307.8</v>
+      </c>
+      <c r="F12" s="30">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="G12" s="30">
+        <f t="shared" si="3"/>
+        <v>308.39999999999998</v>
+      </c>
+      <c r="H12" s="30">
+        <f t="shared" si="3"/>
+        <v>308.2</v>
+      </c>
+      <c r="I12" s="30">
+        <f t="shared" si="3"/>
+        <v>308.60000000000002</v>
+      </c>
+      <c r="J12" s="30">
+        <f t="shared" si="3"/>
+        <v>309.8</v>
+      </c>
+      <c r="K12" s="30">
+        <f t="shared" si="3"/>
+        <v>310.8</v>
+      </c>
+      <c r="L12" s="30">
+        <f t="shared" si="3"/>
+        <v>311.8</v>
+      </c>
+      <c r="M12" s="30">
+        <f t="shared" si="3"/>
+        <v>314.2</v>
+      </c>
+      <c r="N12" s="30">
+        <f>SUM(L11:P11)/5</f>
+        <v>314</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="32" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="32" t="e">
+        <f>B11-B12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C13" s="32" t="e">
+        <f t="shared" ref="C13:P13" si="4">C11-C12</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D13" s="32">
+        <f t="shared" si="4"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="E13" s="32">
+        <f t="shared" si="4"/>
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="F13" s="32">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="G13" s="32">
+        <f t="shared" si="4"/>
+        <v>-6.3999999999999773</v>
+      </c>
+      <c r="H13" s="32">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="I13" s="32">
+        <f t="shared" si="4"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="J13" s="32">
+        <f t="shared" si="4"/>
+        <v>-4.8000000000000114</v>
+      </c>
+      <c r="K13" s="32">
+        <f t="shared" si="4"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="L13" s="32">
+        <f t="shared" si="4"/>
+        <v>-3.8000000000000114</v>
+      </c>
+      <c r="M13" s="32">
+        <f t="shared" si="4"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="N13" s="32">
+        <f t="shared" si="4"/>
+        <v>3</v>
+      </c>
+      <c r="O13" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="P13" s="32" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B15" s="48" t="s">
+        <v>89</v>
+      </c>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>105</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="15">
+        <v>1</v>
+      </c>
+      <c r="B17" t="e">
+        <f t="shared" ref="B17:F17" si="5">B13</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C17" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="5"/>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="5"/>
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="F17">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="15">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <f t="shared" ref="B18:F18" si="6">G13</f>
+        <v>-6.3999999999999773</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="6"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="6"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="6"/>
+        <v>-4.8000000000000114</v>
+      </c>
+      <c r="F18">
+        <f t="shared" si="6"/>
+        <v>3.1999999999999886</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="15">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f t="shared" ref="B19:F19" si="7">L13</f>
+        <v>-3.8000000000000114</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="7"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="E19" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="F19" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <f>AVERAGE(B18:B19)</f>
+        <v>-5.0999999999999943</v>
+      </c>
+      <c r="C20">
+        <f>AVERAGE(C18:C19)</f>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="D20">
+        <f>AVERAGE(D17:D19)</f>
+        <v>2.599999999999985</v>
+      </c>
+      <c r="E20">
+        <f>AVERAGE(E17:E18)</f>
+        <v>-3.3000000000000114</v>
+      </c>
+      <c r="F20">
+        <f>AVERAGE(F17:F18)</f>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="G20">
+        <f>SUM(B20:F20)</f>
+        <v>-0.90000000000001457</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <f>G20/5</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="C21">
+        <f>$B$21</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="D21">
+        <f>$B$21</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="E21">
+        <f>$B$21</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="F21">
+        <f>$B$21</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="G21">
+        <f>SUM(B21:F21)</f>
+        <v>-0.90000000000001457</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>109</v>
+      </c>
+      <c r="B22">
+        <f>B20-B21</f>
+        <v>-4.919999999999991</v>
+      </c>
+      <c r="C22">
+        <f t="shared" ref="C22:F22" si="8">C20-C21</f>
+        <v>1.4800000000000142</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="8"/>
+        <v>2.7799999999999878</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="8"/>
+        <v>-3.1200000000000085</v>
+      </c>
+      <c r="F22">
+        <f t="shared" si="8"/>
+        <v>3.7799999999999971</v>
+      </c>
+      <c r="G22">
+        <f>SUM(B22:F22)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="15"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="15" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>105</v>
+      </c>
+      <c r="B27" t="s">
+        <v>89</v>
+      </c>
+      <c r="C27" t="s">
+        <v>107</v>
+      </c>
+      <c r="D27" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="48">
+        <v>2</v>
+      </c>
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>302</v>
+      </c>
+      <c r="D28">
+        <v>-4.919999999999991</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ref="E28:E37" si="9">C28-D28</f>
+        <v>306.92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="48"/>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>310</v>
+      </c>
+      <c r="D29">
+        <v>1.4800000000000142</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="9"/>
+        <v>308.52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="48"/>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>312</v>
+      </c>
+      <c r="D30">
+        <v>2.7799999999999878</v>
+      </c>
+      <c r="E30">
+        <f t="shared" si="9"/>
+        <v>309.22000000000003</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="48"/>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>305</v>
+      </c>
+      <c r="D31">
+        <v>-3.1200000000000085</v>
+      </c>
+      <c r="E31">
+        <f t="shared" si="9"/>
+        <v>308.12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="48"/>
+      <c r="B32" t="s">
+        <v>20</v>
+      </c>
+      <c r="C32">
+        <v>314</v>
+      </c>
+      <c r="D32">
+        <v>3.7799999999999971</v>
+      </c>
+      <c r="E32">
+        <f t="shared" si="9"/>
+        <v>310.22000000000003</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="48">
+        <v>3</v>
+      </c>
+      <c r="B33" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <v>308</v>
+      </c>
+      <c r="D33">
+        <v>-4.919999999999991</v>
+      </c>
+      <c r="E33">
+        <f t="shared" si="9"/>
+        <v>312.92</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="48"/>
+      <c r="B34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <v>315</v>
+      </c>
+      <c r="D34">
+        <v>1.4800000000000142</v>
+      </c>
+      <c r="E34">
+        <f t="shared" si="9"/>
+        <v>313.52</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="48"/>
+      <c r="B35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <v>317</v>
+      </c>
+      <c r="D35">
+        <v>2.7799999999999878</v>
+      </c>
+      <c r="E35">
+        <f t="shared" si="9"/>
+        <v>314.22000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="48"/>
+      <c r="B36" t="s">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <v>317</v>
+      </c>
+      <c r="D36">
+        <v>-3.1200000000000085</v>
+      </c>
+      <c r="E36">
+        <f t="shared" si="9"/>
+        <v>320.12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="48"/>
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <v>313</v>
+      </c>
+      <c r="D37">
+        <v>3.7799999999999971</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="9"/>
+        <v>309.22000000000003</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="B42">
+        <f>(N12-D12)/(COUNT(D12:N12)-1)</f>
+        <v>0.5399999999999977</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45">
+        <f>N12+(B42*3)+B22</f>
+        <v>310.7</v>
+      </c>
+      <c r="C45" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>17</v>
+      </c>
+      <c r="B46">
+        <f>N12+(B42*4)+C22</f>
+        <v>317.64</v>
+      </c>
+      <c r="C46" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>18</v>
+      </c>
+      <c r="B47">
+        <f>N12+(B42*4)+D22</f>
+        <v>318.93999999999994</v>
+      </c>
+      <c r="C47" t="s">
+        <v>146</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A28:A32"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="G9:K9"/>
+    <mergeCell ref="L9:P9"/>
+    <mergeCell ref="B15:F15"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{875A709A-362C-4C7A-ABA6-8982FB414418}">
+  <dimension ref="A1:G35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:G35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>184</v>
+      </c>
+      <c r="E2" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="F2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G2" s="38" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>1</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="38">
+        <v>306</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38">
+        <v>-4.919999999999991</v>
+      </c>
+      <c r="G3" s="38">
+        <f>C3-F3</f>
+        <v>310.92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="38">
+        <v>309</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38">
+        <v>1.4800000000000142</v>
+      </c>
+      <c r="G4" s="38">
+        <f t="shared" ref="G4:G17" si="0">C4-F4</f>
+        <v>307.52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="38">
+        <v>310</v>
+      </c>
+      <c r="D5" s="38">
+        <f>SUM(C3:C7)/5</f>
+        <v>308.60000000000002</v>
+      </c>
+      <c r="E5" s="38">
+        <f>C5-D5</f>
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="F5" s="38">
+        <v>2.7799999999999878</v>
+      </c>
+      <c r="G5" s="38">
+        <f t="shared" si="0"/>
+        <v>307.22000000000003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="38">
+        <v>306</v>
+      </c>
+      <c r="D6" s="38">
+        <f t="shared" ref="D6:D15" si="1">SUM(C4:C8)/5</f>
+        <v>307.8</v>
+      </c>
+      <c r="E6" s="38">
+        <f t="shared" ref="E6:E15" si="2">C6-D6</f>
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="F6" s="38">
+        <v>-3.1200000000000085</v>
+      </c>
+      <c r="G6" s="38">
+        <f t="shared" si="0"/>
+        <v>309.12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="38">
+        <v>312</v>
+      </c>
+      <c r="D7" s="38">
+        <f t="shared" si="1"/>
+        <v>308</v>
+      </c>
+      <c r="E7" s="38">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="F7" s="38">
+        <v>3.7799999999999971</v>
+      </c>
+      <c r="G7" s="38">
+        <f t="shared" si="0"/>
+        <v>308.22000000000003</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="38">
+        <v>2</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="38">
+        <v>302</v>
+      </c>
+      <c r="D8" s="38">
+        <f t="shared" si="1"/>
+        <v>308.39999999999998</v>
+      </c>
+      <c r="E8" s="38">
+        <f t="shared" si="2"/>
+        <v>-6.3999999999999773</v>
+      </c>
+      <c r="F8" s="38">
+        <v>-4.919999999999991</v>
+      </c>
+      <c r="G8" s="38">
+        <f t="shared" si="0"/>
+        <v>306.92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="38">
+        <v>310</v>
+      </c>
+      <c r="D9" s="38">
+        <f t="shared" si="1"/>
+        <v>308.2</v>
+      </c>
+      <c r="E9" s="38">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="F9" s="38">
+        <v>1.4800000000000142</v>
+      </c>
+      <c r="G9" s="38">
+        <f t="shared" si="0"/>
+        <v>308.52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="38">
+        <v>312</v>
+      </c>
+      <c r="D10" s="38">
+        <f t="shared" si="1"/>
+        <v>308.60000000000002</v>
+      </c>
+      <c r="E10" s="38">
+        <f t="shared" si="2"/>
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="F10" s="38">
+        <v>2.7799999999999878</v>
+      </c>
+      <c r="G10" s="38">
+        <f t="shared" si="0"/>
+        <v>309.22000000000003</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="38">
+        <v>305</v>
+      </c>
+      <c r="D11" s="38">
+        <f t="shared" si="1"/>
+        <v>309.8</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" si="2"/>
+        <v>-4.8000000000000114</v>
+      </c>
+      <c r="F11" s="38">
+        <v>-3.1200000000000085</v>
+      </c>
+      <c r="G11" s="38">
+        <f t="shared" si="0"/>
+        <v>308.12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="38">
+        <v>314</v>
+      </c>
+      <c r="D12" s="38">
+        <f t="shared" si="1"/>
+        <v>310.8</v>
+      </c>
+      <c r="E12" s="38">
+        <f t="shared" si="2"/>
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="F12" s="38">
+        <v>3.7799999999999971</v>
+      </c>
+      <c r="G12" s="38">
+        <f t="shared" si="0"/>
+        <v>310.22000000000003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="38">
+        <v>3</v>
+      </c>
+      <c r="B13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="38">
+        <v>308</v>
+      </c>
+      <c r="D13" s="38">
+        <f t="shared" si="1"/>
+        <v>311.8</v>
+      </c>
+      <c r="E13" s="38">
+        <f t="shared" si="2"/>
+        <v>-3.8000000000000114</v>
+      </c>
+      <c r="F13" s="38">
+        <v>-4.919999999999991</v>
+      </c>
+      <c r="G13" s="38">
+        <f t="shared" si="0"/>
+        <v>312.92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="38">
+        <v>315</v>
+      </c>
+      <c r="D14" s="38">
+        <f t="shared" si="1"/>
+        <v>314.2</v>
+      </c>
+      <c r="E14" s="38">
+        <f t="shared" si="2"/>
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="F14" s="38">
+        <v>1.4800000000000142</v>
+      </c>
+      <c r="G14" s="38">
+        <f t="shared" si="0"/>
+        <v>313.52</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="38">
+        <v>317</v>
+      </c>
+      <c r="D15" s="38">
+        <f t="shared" si="1"/>
+        <v>314</v>
+      </c>
+      <c r="E15" s="38">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+      <c r="F15" s="38">
+        <v>2.7799999999999878</v>
+      </c>
+      <c r="G15" s="38">
+        <f t="shared" si="0"/>
+        <v>314.22000000000003</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C16" s="38">
+        <v>317</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38">
+        <v>-3.1200000000000085</v>
+      </c>
+      <c r="G16" s="38">
+        <f t="shared" si="0"/>
+        <v>320.12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="38">
+        <v>313</v>
+      </c>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38">
+        <v>3.7799999999999971</v>
+      </c>
+      <c r="G17" s="38">
+        <f t="shared" si="0"/>
+        <v>309.22000000000003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B19" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="38" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="38">
+        <v>1</v>
+      </c>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38">
+        <v>1.3999999999999773</v>
+      </c>
+      <c r="E21" s="38">
+        <v>-1.8000000000000114</v>
+      </c>
+      <c r="F21" s="38">
+        <v>4</v>
+      </c>
+      <c r="G21" s="38"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="38">
+        <v>2</v>
+      </c>
+      <c r="B22" s="38">
+        <v>-6.3999999999999773</v>
+      </c>
+      <c r="C22" s="38">
+        <v>1.8000000000000114</v>
+      </c>
+      <c r="D22" s="38">
+        <v>3.3999999999999773</v>
+      </c>
+      <c r="E22" s="38">
+        <v>-4.8000000000000114</v>
+      </c>
+      <c r="F22" s="38">
+        <v>3.1999999999999886</v>
+      </c>
+      <c r="G22" s="38"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="38">
+        <v>3</v>
+      </c>
+      <c r="B23" s="38">
+        <v>-3.8000000000000114</v>
+      </c>
+      <c r="C23" s="38">
+        <v>0.80000000000001137</v>
+      </c>
+      <c r="D23" s="38">
+        <v>3</v>
+      </c>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38">
+        <f>SUM(B24:F24)</f>
+        <v>-0.90000000000001457</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="38" t="s">
+        <v>185</v>
+      </c>
+      <c r="B24" s="38">
+        <f>SUM(B21:B23)/COUNT(B21:B23)</f>
+        <v>-5.0999999999999943</v>
+      </c>
+      <c r="C24" s="38">
+        <f t="shared" ref="C24:F24" si="3">SUM(C21:C23)/COUNT(C21:C23)</f>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="D24" s="38">
+        <f t="shared" si="3"/>
+        <v>2.599999999999985</v>
+      </c>
+      <c r="E24" s="38">
+        <f t="shared" si="3"/>
+        <v>-3.3000000000000114</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="3"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="G24" s="38"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="38">
+        <f>G23/5</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="C25" s="38">
+        <f>G23/5</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="D25" s="38">
+        <f>G23/5</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="E25" s="38">
+        <f>G23/5</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="F25" s="38">
+        <f>G23/5</f>
+        <v>-0.18000000000000291</v>
+      </c>
+      <c r="G25" s="38">
+        <f>SUM(B26:F26)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="38" t="s">
+        <v>186</v>
+      </c>
+      <c r="B26" s="38">
+        <f>B24-B25</f>
+        <v>-4.919999999999991</v>
+      </c>
+      <c r="C26" s="38">
+        <f t="shared" ref="C26:F26" si="4">C24-C25</f>
+        <v>1.4800000000000142</v>
+      </c>
+      <c r="D26" s="38">
+        <f t="shared" si="4"/>
+        <v>2.7799999999999878</v>
+      </c>
+      <c r="E26" s="38">
+        <f t="shared" si="4"/>
+        <v>-3.1200000000000085</v>
+      </c>
+      <c r="F26" s="38">
+        <f t="shared" si="4"/>
+        <v>3.7799999999999971</v>
+      </c>
+      <c r="G26" s="38"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="38" t="s">
+        <v>187</v>
+      </c>
+      <c r="B30" s="38">
+        <f>(D15-D5)/(COUNT(E5:E15)-1)</f>
+        <v>0.5399999999999977</v>
+      </c>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>188</v>
+      </c>
+      <c r="D32" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F32" s="38" t="s">
+        <v>190</v>
+      </c>
+      <c r="G32" s="38"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="38">
+        <v>4</v>
+      </c>
+      <c r="B33" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C33" s="38">
+        <v>314</v>
+      </c>
+      <c r="D33" s="38">
+        <v>3</v>
+      </c>
+      <c r="E33" s="38">
+        <f>B26</f>
+        <v>-4.919999999999991</v>
+      </c>
+      <c r="F33" s="38">
+        <f>C33+D33*B30+E33</f>
+        <v>310.7</v>
+      </c>
+      <c r="G33" s="38"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="C34" s="38">
+        <v>314</v>
+      </c>
+      <c r="D34" s="38">
+        <v>4</v>
+      </c>
+      <c r="E34" s="38">
+        <f>C26</f>
+        <v>1.4800000000000142</v>
+      </c>
+      <c r="F34" s="38">
+        <f>C34+D34*B30+E34</f>
+        <v>317.64</v>
+      </c>
+      <c r="G34" s="38"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38" t="s">
+        <v>18</v>
+      </c>
+      <c r="C35" s="38">
+        <v>314</v>
+      </c>
+      <c r="D35" s="38">
+        <v>5</v>
+      </c>
+      <c r="E35" s="38">
+        <f>D26</f>
+        <v>2.7799999999999878</v>
+      </c>
+      <c r="F35" s="38">
+        <f>C35+D35*B30+E35</f>
+        <v>319.47999999999996</v>
+      </c>
+      <c r="G35" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB9F6FE5-1913-4081-A5F3-79BC568C5675}">
   <dimension ref="A2:H88"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B87" sqref="B87"/>
+    <sheetView topLeftCell="A64" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9372,16 +13370,16 @@
         <v>4</v>
       </c>
       <c r="C2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" t="s">
         <v>149</v>
       </c>
-      <c r="D2" t="s">
+      <c r="G2" t="s">
         <v>150</v>
       </c>
-      <c r="G2" t="s">
-        <v>151</v>
-      </c>
       <c r="H2" t="s">
-        <v>54</v>
+        <v>163</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -9590,22 +13588,22 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
-      <c r="B38" s="38" t="s">
+      <c r="B38" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C38" s="38"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="38"/>
+      <c r="C38" s="48"/>
+      <c r="D38" s="48"/>
+      <c r="E38" s="48"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
@@ -9727,7 +13725,7 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46">
         <f>B44*B45</f>
@@ -9748,7 +13746,7 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -9759,13 +13757,13 @@
         <v>4</v>
       </c>
       <c r="C50" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D50" t="s">
         <v>81</v>
       </c>
       <c r="E50" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -9781,9 +13779,9 @@
       <c r="D51">
         <v>0.90181166889399589</v>
       </c>
-      <c r="E51">
-        <f>C51-D51</f>
-        <v>1.7981883311060043</v>
+      <c r="E51" s="36">
+        <f t="shared" ref="E51:E63" si="3">C51/D51</f>
+        <v>2.9939732353556114</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -9796,9 +13794,9 @@
       <c r="D52">
         <v>1.1939003574806317</v>
       </c>
-      <c r="E52">
-        <f t="shared" ref="E52:E64" si="3">C52-D52</f>
-        <v>2.9060996425193677</v>
+      <c r="E52" s="36">
+        <f t="shared" si="3"/>
+        <v>3.4341224326725377</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
@@ -9811,9 +13809,9 @@
       <c r="D53">
         <v>1.1030085629596627</v>
       </c>
-      <c r="E53">
+      <c r="E53" s="36">
         <f t="shared" si="3"/>
-        <v>2.7969914370403375</v>
+        <v>3.5357839739115642</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -9826,9 +13824,9 @@
       <c r="D54">
         <v>0.80127941066571018</v>
       </c>
-      <c r="E54">
+      <c r="E54" s="36">
         <f t="shared" si="3"/>
-        <v>2.2987205893342901</v>
+        <v>3.8688127496306088</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
@@ -9844,9 +13842,9 @@
       <c r="D55">
         <v>0.90181166889399589</v>
       </c>
-      <c r="E55">
+      <c r="E55" s="36">
         <f t="shared" si="3"/>
-        <v>2.8981883311060042</v>
+        <v>4.2137401090190076</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -9859,9 +13857,9 @@
       <c r="D56">
         <v>1.1939003574806317</v>
       </c>
-      <c r="E56">
+      <c r="E56" s="36">
         <f t="shared" si="3"/>
-        <v>4.2060996425193684</v>
+        <v>4.5229905210809038</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
@@ -9874,9 +13872,9 @@
       <c r="D57">
         <v>1.1030085629596627</v>
       </c>
-      <c r="E57">
+      <c r="E57" s="36">
         <f t="shared" si="3"/>
-        <v>4.1969914370403369</v>
+        <v>4.8050397594182801</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -9889,9 +13887,9 @@
       <c r="D58">
         <v>0.80127941066571018</v>
       </c>
-      <c r="E58">
+      <c r="E58" s="36">
         <f t="shared" si="3"/>
-        <v>3.2987205893342892</v>
+        <v>5.1168168624146757</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
@@ -9907,9 +13905,9 @@
       <c r="D59">
         <v>0.90181166889399589</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="36">
         <f t="shared" si="3"/>
-        <v>3.9981883311060047</v>
+        <v>5.4335069826824061</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -9922,9 +13920,9 @@
       <c r="D60">
         <v>1.1939003574806317</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="36">
         <f t="shared" si="3"/>
-        <v>5.6060996425193679</v>
+        <v>5.6956176932129896</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
@@ -9937,9 +13935,9 @@
       <c r="D61">
         <v>1.1030085629596627</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="36">
         <f t="shared" si="3"/>
-        <v>5.4969914370403368</v>
+        <v>5.9836344173888012</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -9952,9 +13950,9 @@
       <c r="D62">
         <v>0.80127941066571018</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="36">
         <f t="shared" si="3"/>
-        <v>4.1987205893342896</v>
+        <v>6.2400205639203365</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -9970,9 +13968,9 @@
       <c r="D63">
         <v>0.90181166889399589</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="36">
         <f t="shared" si="3"/>
-        <v>4.9981883311060047</v>
+        <v>6.5423859587400397</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
@@ -9986,8 +13984,8 @@
         <v>1.1939003574806317</v>
       </c>
       <c r="E64">
-        <f t="shared" si="3"/>
-        <v>7.1060996425193688</v>
+        <f>C64/D64</f>
+        <v>6.9520039490687973</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
@@ -10002,18 +14000,18 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B68" s="13"/>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
@@ -10021,23 +14019,23 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <f>(E64-E51)/(13)</f>
-        <v>0.40830087010872035</v>
+        <f>(G14-G5)/(10-1)</f>
+        <v>0.29722222222222222</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B87">
         <f>(G14+3*B86)*D61</f>
-        <v>8.258669193516285</v>
+        <v>7.8911070941739192</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B88">
         <f>(G14+4*B86)*D62</f>
-        <v>6.326664631594058</v>
+        <v>5.9706444975299098</v>
       </c>
     </row>
   </sheetData>
@@ -10049,19 +14047,951 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B6D87C0-5D3E-4FC1-A09F-5BCE62B08FC4}">
+  <dimension ref="A1:J49"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="J27" sqref="J27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" s="38"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38" t="s">
+        <v>191</v>
+      </c>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="38" t="s">
+        <v>148</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>149</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38" t="s">
+        <v>150</v>
+      </c>
+      <c r="H2" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="I2" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="38" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
+        <v>2008</v>
+      </c>
+      <c r="B3" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" s="38">
+        <v>2.7</v>
+      </c>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38">
+        <v>0.90181170910806896</v>
+      </c>
+      <c r="J3" s="38">
+        <f>C3/I3</f>
+        <v>2.9939731018467457</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="38"/>
+      <c r="B4" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C4" s="38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38">
+        <v>1.1939004107196816</v>
+      </c>
+      <c r="J4" s="38">
+        <f t="shared" ref="J4:J16" si="0">C4/I4</f>
+        <v>3.4341222795363016</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="38">
+        <v>3.9</v>
+      </c>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38">
+        <v>3.5874999999999995</v>
+      </c>
+      <c r="H5" s="38">
+        <f>C5/G5</f>
+        <v>1.0871080139372824</v>
+      </c>
+      <c r="I5" s="38">
+        <v>1.1030086121456164</v>
+      </c>
+      <c r="J5" s="38">
+        <f t="shared" si="0"/>
+        <v>3.5357838162419823</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="38">
+        <v>3.1</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38">
+        <v>3.8875000000000002</v>
+      </c>
+      <c r="H6" s="38">
+        <f t="shared" ref="H6:H14" si="1">C6/G6</f>
+        <v>0.797427652733119</v>
+      </c>
+      <c r="I6" s="38">
+        <v>0.80127944639679449</v>
+      </c>
+      <c r="J6" s="38">
+        <f t="shared" si="0"/>
+        <v>3.8688125771104285</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="38">
+        <v>2009</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7" s="38">
+        <v>3.8</v>
+      </c>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38">
+        <v>4.2250000000000005</v>
+      </c>
+      <c r="H7" s="38">
+        <f t="shared" si="1"/>
+        <v>0.89940828402366846</v>
+      </c>
+      <c r="I7" s="38">
+        <v>0.90181170910806896</v>
+      </c>
+      <c r="J7" s="38">
+        <f t="shared" si="0"/>
+        <v>4.2137399211176412</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C8" s="38">
+        <v>5.4</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38">
+        <v>4.5250000000000004</v>
+      </c>
+      <c r="H8" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1933701657458564</v>
+      </c>
+      <c r="I8" s="38">
+        <v>1.1939004107196816</v>
+      </c>
+      <c r="J8" s="38">
+        <f t="shared" si="0"/>
+        <v>4.522990319389276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C9" s="38">
+        <v>5.3</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38">
+        <v>4.7874999999999996</v>
+      </c>
+      <c r="H9" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1070496083550914</v>
+      </c>
+      <c r="I9" s="38">
+        <v>1.1030086121456164</v>
+      </c>
+      <c r="J9" s="38">
+        <f t="shared" si="0"/>
+        <v>4.8050395451493602</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C10" s="38">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="H10" s="38">
+        <f t="shared" si="1"/>
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="I10" s="38">
+        <v>0.80127944639679449</v>
+      </c>
+      <c r="J10" s="38">
+        <f t="shared" si="0"/>
+        <v>5.1168166342428245</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="38">
+        <v>2010</v>
+      </c>
+      <c r="B11" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="38">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38">
+        <v>5.4375</v>
+      </c>
+      <c r="H11" s="38">
+        <f t="shared" si="1"/>
+        <v>0.90114942528735642</v>
+      </c>
+      <c r="I11" s="38">
+        <v>0.90181170910806896</v>
+      </c>
+      <c r="J11" s="38">
+        <f t="shared" si="0"/>
+        <v>5.4335067403885384</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="38"/>
+      <c r="B12" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C12" s="38">
+        <v>6.8</v>
+      </c>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38">
+        <v>5.7124999999999995</v>
+      </c>
+      <c r="H12" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1903719912472648</v>
+      </c>
+      <c r="I12" s="38">
+        <v>1.1939004107196816</v>
+      </c>
+      <c r="J12" s="38">
+        <f t="shared" si="0"/>
+        <v>5.69561743923094</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" s="38">
+        <v>6.6</v>
+      </c>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38">
+        <v>5.9499999999999993</v>
+      </c>
+      <c r="H13" s="38">
+        <f t="shared" si="1"/>
+        <v>1.1092436974789917</v>
+      </c>
+      <c r="I13" s="38">
+        <v>1.1030086121456164</v>
+      </c>
+      <c r="J13" s="38">
+        <f t="shared" si="0"/>
+        <v>5.9836341505633541</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C14" s="38">
+        <v>5</v>
+      </c>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38">
+        <v>6.2624999999999993</v>
+      </c>
+      <c r="H14" s="38">
+        <f t="shared" si="1"/>
+        <v>0.79840319361277456</v>
+      </c>
+      <c r="I14" s="38">
+        <v>0.80127944639679449</v>
+      </c>
+      <c r="J14" s="38">
+        <f t="shared" si="0"/>
+        <v>6.2400202856619815</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B15" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" s="38">
+        <v>5.9</v>
+      </c>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38">
+        <v>0.90181170910806896</v>
+      </c>
+      <c r="J15" s="38">
+        <f t="shared" si="0"/>
+        <v>6.5423856669984435</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" s="38">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+      <c r="I16" s="38">
+        <v>1.1939004107196816</v>
+      </c>
+      <c r="J16" s="38">
+        <f t="shared" si="0"/>
+        <v>6.9520036390612949</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="38">
+        <v>1.1030086121456164</v>
+      </c>
+      <c r="J17" s="38"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38">
+        <v>0.80127944639679449</v>
+      </c>
+      <c r="J18" s="38"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="38"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="38" t="s">
+        <v>193</v>
+      </c>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="38"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="38"/>
+      <c r="D21" s="38"/>
+      <c r="E21" s="38"/>
+      <c r="F21" s="38"/>
+      <c r="G21" s="38"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="38"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="38"/>
+      <c r="E22" s="38"/>
+      <c r="F22" s="38"/>
+      <c r="G22" s="38"/>
+      <c r="H22" s="38"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="38"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="38"/>
+      <c r="B23" s="38"/>
+      <c r="C23" s="38"/>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="38"/>
+      <c r="G23" s="38"/>
+      <c r="H23" s="38"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="38"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="38"/>
+      <c r="B24" s="38"/>
+      <c r="C24" s="38"/>
+      <c r="D24" s="38"/>
+      <c r="E24" s="38"/>
+      <c r="F24" s="38"/>
+      <c r="G24" s="38"/>
+      <c r="H24" s="38"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="38"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="38"/>
+      <c r="B25" s="38"/>
+      <c r="C25" s="38"/>
+      <c r="D25" s="38"/>
+      <c r="E25" s="38"/>
+      <c r="F25" s="38"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="38"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="38"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="38"/>
+      <c r="B26" s="38"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="38"/>
+      <c r="I26" s="38"/>
+      <c r="J26" s="38"/>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" s="38"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="38"/>
+      <c r="I27" s="38"/>
+      <c r="J27" s="38"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="38"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38"/>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="38"/>
+      <c r="B29" s="38"/>
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38"/>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="38"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="38"/>
+      <c r="D30" s="38"/>
+      <c r="E30" s="38"/>
+      <c r="F30" s="38"/>
+      <c r="G30" s="38"/>
+      <c r="H30" s="38"/>
+      <c r="I30" s="38"/>
+      <c r="J30" s="38"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="38"/>
+      <c r="B31" s="38"/>
+      <c r="C31" s="38"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="38"/>
+      <c r="G31" s="38"/>
+      <c r="H31" s="38"/>
+      <c r="I31" s="38"/>
+      <c r="J31" s="38"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="38"/>
+      <c r="B32" s="38"/>
+      <c r="C32" s="38"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="38"/>
+      <c r="F32" s="38"/>
+      <c r="G32" s="38"/>
+      <c r="H32" s="38"/>
+      <c r="I32" s="38"/>
+      <c r="J32" s="38"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="38"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="38"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38"/>
+      <c r="H33" s="38"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="38"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+      <c r="I34" s="38"/>
+      <c r="J34" s="38"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="38"/>
+      <c r="B35" s="38"/>
+      <c r="C35" s="38"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="38" t="s">
+        <v>194</v>
+      </c>
+      <c r="B36" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="38"/>
+      <c r="B37" s="38"/>
+      <c r="C37" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="D37" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="E37" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="F37" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+      <c r="I37" s="38"/>
+      <c r="J37" s="38"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="38"/>
+      <c r="B38" s="38">
+        <v>2008</v>
+      </c>
+      <c r="C38" s="38"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="38">
+        <v>1.0871080139372824</v>
+      </c>
+      <c r="F38" s="38">
+        <v>0.797427652733119</v>
+      </c>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+      <c r="I38" s="38"/>
+      <c r="J38" s="38"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="38"/>
+      <c r="B39" s="38">
+        <v>2009</v>
+      </c>
+      <c r="C39" s="38">
+        <v>0.89940828402366846</v>
+      </c>
+      <c r="D39" s="38">
+        <v>1.1933701657458564</v>
+      </c>
+      <c r="E39" s="38">
+        <v>1.1070496083550914</v>
+      </c>
+      <c r="F39" s="38">
+        <v>0.80392156862745101</v>
+      </c>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+      <c r="I39" s="38"/>
+      <c r="J39" s="38"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="38"/>
+      <c r="B40" s="38">
+        <v>2010</v>
+      </c>
+      <c r="C40" s="38">
+        <v>0.90114942528735642</v>
+      </c>
+      <c r="D40" s="38">
+        <v>1.1903719912472648</v>
+      </c>
+      <c r="E40" s="38">
+        <v>1.1092436974789917</v>
+      </c>
+      <c r="F40" s="38">
+        <v>0.79840319361277456</v>
+      </c>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+      <c r="I40" s="38"/>
+      <c r="J40" s="38"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="38"/>
+      <c r="B41" s="38" t="s">
+        <v>31</v>
+      </c>
+      <c r="C41" s="38">
+        <f>SUM(C38:C40)/COUNT(C38:C40)</f>
+        <v>0.90027885465551249</v>
+      </c>
+      <c r="D41" s="38">
+        <f>SUM(D38:D40)/COUNT(D38:D40)</f>
+        <v>1.1918710784965607</v>
+      </c>
+      <c r="E41" s="38">
+        <f>SUM(E38:E40)/COUNT(E38:E40)</f>
+        <v>1.1011337732571218</v>
+      </c>
+      <c r="F41" s="38">
+        <f>SUM(F38:F40)/COUNT(F38:F40)</f>
+        <v>0.79991747165778149</v>
+      </c>
+      <c r="G41" s="38">
+        <f>SUM(C41:F41)</f>
+        <v>3.9932011780669763</v>
+      </c>
+      <c r="H41" s="38"/>
+      <c r="I41" s="38"/>
+      <c r="J41" s="38"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="38"/>
+      <c r="B42" s="38" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="38">
+        <f>C41*4/3.993201</f>
+        <v>0.90181170910806896</v>
+      </c>
+      <c r="D42" s="38">
+        <f t="shared" ref="D42:F42" si="2">D41*4/3.993201</f>
+        <v>1.1939004107196816</v>
+      </c>
+      <c r="E42" s="38">
+        <f t="shared" si="2"/>
+        <v>1.1030086121456164</v>
+      </c>
+      <c r="F42" s="38">
+        <f t="shared" si="2"/>
+        <v>0.80127944639679449</v>
+      </c>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+      <c r="I42" s="38"/>
+      <c r="J42" s="38"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" s="38"/>
+      <c r="B43" s="38"/>
+      <c r="C43" s="38"/>
+      <c r="D43" s="38"/>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+      <c r="I43" s="38"/>
+      <c r="J43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" s="38"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+      <c r="I44" s="38"/>
+      <c r="J44" s="38"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" s="38" t="s">
+        <v>196</v>
+      </c>
+      <c r="B45" s="38" t="s">
+        <v>197</v>
+      </c>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38">
+        <f>(G14-G5)/(COUNT(G5:G14)-1)</f>
+        <v>0.29722222222222222</v>
+      </c>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+      <c r="I45" s="38"/>
+      <c r="J45" s="38"/>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+      <c r="I46" s="38"/>
+      <c r="J46" s="38"/>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="C47" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="D47" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="E47" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="F47" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G47" s="38" t="s">
+        <v>198</v>
+      </c>
+      <c r="H47" s="38"/>
+      <c r="I47" s="38"/>
+      <c r="J47" s="38"/>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38">
+        <v>2011</v>
+      </c>
+      <c r="C48" s="38">
+        <v>3</v>
+      </c>
+      <c r="D48" s="38">
+        <v>6.2624999999999993</v>
+      </c>
+      <c r="E48" s="38">
+        <v>3</v>
+      </c>
+      <c r="F48" s="38">
+        <f>E42</f>
+        <v>1.1030086121456164</v>
+      </c>
+      <c r="G48" s="38">
+        <f>(D48+E48*F45)*F48</f>
+        <v>7.8911074460584301</v>
+      </c>
+      <c r="H48" s="38"/>
+      <c r="I48" s="38"/>
+      <c r="J48" s="38"/>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" s="38"/>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38">
+        <v>4</v>
+      </c>
+      <c r="D49" s="38">
+        <v>6.2624999999999993</v>
+      </c>
+      <c r="E49" s="38">
+        <v>4</v>
+      </c>
+      <c r="F49" s="38">
+        <f>F42</f>
+        <v>0.80127944639679449</v>
+      </c>
+      <c r="G49" s="38">
+        <f>(D49+E49*F45)*F49</f>
+        <v>5.9706447637761144</v>
+      </c>
+      <c r="H49" s="38"/>
+      <c r="I49" s="38"/>
+      <c r="J49" s="38"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE4E6F8-649F-47A6-942C-F0434D40B8E9}">
-  <dimension ref="A1:I55"/>
+  <dimension ref="A1:I56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C54" sqref="C54"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -10072,19 +15002,19 @@
         <v>89</v>
       </c>
       <c r="C2" t="s">
+        <v>161</v>
+      </c>
+      <c r="D2" t="s">
         <v>162</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>163</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>164</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -10101,8 +15031,8 @@
         <v>0.71686028154630066</v>
       </c>
       <c r="G3" s="1">
-        <f>C3-F3</f>
-        <v>6.6331397184536991</v>
+        <f>C3/F3</f>
+        <v>10.253043988077719</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -10115,9 +15045,9 @@
       <c r="F4">
         <v>0.60981668518254395</v>
       </c>
-      <c r="G4" s="1">
-        <f t="shared" ref="G4:G23" si="0">C4-F4</f>
-        <v>6.0401833148174564</v>
+      <c r="G4" s="37">
+        <f t="shared" ref="G4:G23" si="0">C4/F4</f>
+        <v>10.904916447160467</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -10130,9 +15060,9 @@
       <c r="F5">
         <v>0.79617034614892934</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5" s="37">
         <f t="shared" si="0"/>
-        <v>8.4438296538510702</v>
+        <v>11.605556580565727</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -10153,9 +15083,9 @@
       <c r="F6">
         <v>0.58894276432840131</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6" s="37">
         <f t="shared" si="0"/>
-        <v>6.6210572356715982</v>
+        <v>12.242276222243595</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -10176,9 +15106,9 @@
       <c r="F7">
         <v>0.99921470073956831</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7" s="37">
         <f t="shared" si="0"/>
-        <v>11.600785299260432</v>
+        <v>12.609902547144388</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -10199,14 +15129,14 @@
       <c r="F8">
         <v>1.6923552205803412</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8" s="37">
         <f t="shared" si="0"/>
-        <v>20.007644779419657</v>
+        <v>12.82236715797683</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C9">
         <v>21.07</v>
@@ -10222,9 +15152,9 @@
       <c r="F9">
         <v>1.5966400014739148</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9" s="37">
         <f t="shared" si="0"/>
-        <v>19.473359998526085</v>
+        <v>13.196462559217819</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -10248,9 +15178,9 @@
       <c r="F10">
         <v>0.71686028154630066</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10" s="37">
         <f t="shared" si="0"/>
-        <v>9.0831397184536993</v>
+        <v>13.670725317436961</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -10271,9 +15201,9 @@
       <c r="F11">
         <v>0.60981668518254395</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11" s="37">
         <f t="shared" si="0"/>
-        <v>7.9301833148174552</v>
+        <v>14.00420849003765</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -10294,9 +15224,9 @@
       <c r="F12">
         <v>0.79617034614892934</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12" s="37">
         <f t="shared" si="0"/>
-        <v>11.03382965385107</v>
+        <v>14.858629258451575</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -10317,9 +15247,9 @@
       <c r="F13">
         <v>0.58894276432840131</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13" s="37">
         <f t="shared" si="0"/>
-        <v>8.7210572356715996</v>
+        <v>15.807987743285418</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -10340,9 +15270,9 @@
       <c r="F14">
         <v>0.99921470073956831</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14" s="37">
         <f t="shared" si="0"/>
-        <v>15.170785299260434</v>
+        <v>16.182708268835299</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -10363,14 +15293,14 @@
       <c r="F15">
         <v>1.6923552205803412</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15" s="37">
         <f t="shared" si="0"/>
-        <v>26.377644779419658</v>
+        <v>16.586352355963577</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C16">
         <v>27.16</v>
@@ -10386,9 +15316,9 @@
       <c r="F16">
         <v>1.5966400014739148</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16" s="37">
         <f t="shared" si="0"/>
-        <v>25.563359998526085</v>
+        <v>17.010722501583103</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -10412,9 +15342,9 @@
       <c r="F17">
         <v>0.71686028154630066</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17" s="37">
         <f t="shared" si="0"/>
-        <v>11.533139718453699</v>
+        <v>17.088406646796201</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -10435,9 +15365,9 @@
       <c r="F18">
         <v>0.60981668518254395</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18" s="37">
         <f t="shared" si="0"/>
-        <v>10.240183314817456</v>
+        <v>17.792232097998657</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -10458,9 +15388,9 @@
       <c r="F19">
         <v>0.79617034614892934</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19" s="37">
         <f t="shared" si="0"/>
-        <v>14.04382965385107</v>
+        <v>18.639227235454047</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -10481,9 +15411,9 @@
       <c r="F20">
         <v>0.58894276432840131</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20" s="37">
         <f t="shared" si="0"/>
-        <v>10.821057235671599</v>
+        <v>19.373699264327239</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -10496,9 +15426,9 @@
       <c r="F21">
         <v>0.99921470073956831</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21" s="37">
         <f t="shared" si="0"/>
-        <v>18.530785299260433</v>
+        <v>19.545348948073801</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -10511,14 +15441,14 @@
       <c r="F22">
         <v>1.6923552205803412</v>
       </c>
-      <c r="G22" s="1">
+      <c r="G22" s="37">
         <f t="shared" si="0"/>
-        <v>31.837644779419659</v>
+        <v>19.812625382809362</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C23">
         <v>32.83</v>
@@ -10526,26 +15456,26 @@
       <c r="F23">
         <v>1.5966400014739148</v>
       </c>
-      <c r="G23" s="1">
+      <c r="G23" s="37">
         <f t="shared" si="0"/>
-        <v>31.233359998526083</v>
+        <v>20.561930034130089</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B42" s="38" t="s">
+      <c r="B42" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="C42" s="38"/>
-      <c r="D42" s="38"/>
-      <c r="E42" s="38"/>
-      <c r="F42" s="38"/>
-      <c r="G42" s="38"/>
-      <c r="H42" s="38"/>
+      <c r="C42" s="48"/>
+      <c r="D42" s="48"/>
+      <c r="E42" s="48"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="48"/>
+      <c r="H42" s="48"/>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -10570,7 +15500,7 @@
         <v>98</v>
       </c>
       <c r="H43" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -10705,7 +15635,7 @@
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B49">
         <f>B47*B48</f>
@@ -10738,7 +15668,7 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -10747,21 +15677,76 @@
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>169</v>
-      </c>
-      <c r="C54">
-        <f>(E20-E6)/14</f>
-        <v>1.7773972487072115E-4</v>
+      <c r="A54" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>89</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D54" s="38" t="s">
+        <v>189</v>
+      </c>
+      <c r="E54" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="F54" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="G54" s="38" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>170</v>
-      </c>
-      <c r="B55">
-        <f>(D20+4*C54)*B49</f>
-        <v>13.85025029767138</v>
+      <c r="A55" s="38">
+        <v>4</v>
+      </c>
+      <c r="B55" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="C55" s="38">
+        <v>19.32</v>
+      </c>
+      <c r="D55" s="38">
+        <v>4</v>
+      </c>
+      <c r="E55" s="38">
+        <f>D55*E52+C55</f>
+        <v>19.32</v>
+      </c>
+      <c r="F55" s="38">
+        <f>B49</f>
+        <v>0.71686028154630066</v>
+      </c>
+      <c r="G55" s="38">
+        <f>E55*F55</f>
+        <v>13.849740639474529</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38" t="s">
+        <v>200</v>
+      </c>
+      <c r="C56" s="38">
+        <v>19.32</v>
+      </c>
+      <c r="D56" s="38">
+        <v>5</v>
+      </c>
+      <c r="E56" s="38">
+        <f>D56*E52+C56</f>
+        <v>19.32</v>
+      </c>
+      <c r="F56" s="38">
+        <f>C49</f>
+        <v>0.60981668518254395</v>
+      </c>
+      <c r="G56" s="38">
+        <f>E56*F56</f>
+        <v>11.78165835772675</v>
       </c>
     </row>
   </sheetData>
@@ -10802,7 +15787,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -10819,7 +15804,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -10834,7 +15819,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -10851,7 +15836,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -10868,7 +15853,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -10885,7 +15870,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -10904,7 +15889,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -10921,7 +15906,7 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -10938,7 +15923,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -10955,7 +15940,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -10972,7 +15957,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -10991,7 +15976,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -11008,7 +15993,7 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -11025,7 +16010,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -11040,7 +16025,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -11100,7 +16085,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -11120,7 +16105,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -11138,7 +16123,7 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -11162,7 +16147,7 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -11186,7 +16171,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -11210,7 +16195,7 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -11233,7 +16218,7 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -11254,7 +16239,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -11275,7 +16260,7 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -11296,7 +16281,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -11317,7 +16302,7 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -11340,7 +16325,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -11361,7 +16346,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -11382,7 +16367,7 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -11400,7 +16385,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -11663,7 +16648,7 @@
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="33" t="s">
+      <c r="A2" s="43" t="s">
         <v>15</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -11682,7 +16667,7 @@
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="33"/>
+      <c r="A3" s="43"/>
       <c r="B3" s="2" t="s">
         <v>17</v>
       </c>
@@ -11699,7 +16684,7 @@
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="33"/>
+      <c r="A4" s="43"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
@@ -11716,7 +16701,7 @@
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="33"/>
+      <c r="A5" s="43"/>
       <c r="B5" s="2" t="s">
         <v>19</v>
       </c>
@@ -11733,7 +16718,7 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+      <c r="A6" s="43"/>
       <c r="B6" s="2" t="s">
         <v>20</v>
       </c>
@@ -11750,7 +16735,7 @@
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="33" t="s">
+      <c r="A7" s="43" t="s">
         <v>21</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -11769,7 +16754,7 @@
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="43"/>
       <c r="B8" s="2" t="s">
         <v>17</v>
       </c>
@@ -11786,7 +16771,7 @@
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+      <c r="A9" s="43"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -11803,7 +16788,7 @@
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+      <c r="A10" s="43"/>
       <c r="B10" s="2" t="s">
         <v>19</v>
       </c>
@@ -11820,7 +16805,7 @@
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+      <c r="A11" s="43"/>
       <c r="B11" s="2" t="s">
         <v>20</v>
       </c>
@@ -11843,7 +16828,7 @@
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="33" t="s">
+      <c r="A12" s="43" t="s">
         <v>22</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -11865,7 +16850,7 @@
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+      <c r="A13" s="43"/>
       <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
@@ -11882,7 +16867,7 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+      <c r="A14" s="43"/>
       <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
@@ -11899,7 +16884,7 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+      <c r="A15" s="43"/>
       <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
@@ -11916,7 +16901,7 @@
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+      <c r="A16" s="43"/>
       <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
@@ -11965,28 +16950,28 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D3" s="34" t="s">
+      <c r="D3" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="E3" s="34"/>
+      <c r="E3" s="44"/>
       <c r="F3" s="16" t="s">
         <v>47</v>
       </c>
       <c r="G3" s="15"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="34"/>
-      <c r="C4" s="34"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
       <c r="D4" s="2" t="s">
         <v>30</v>
       </c>
@@ -12341,28 +17326,28 @@
       <c r="F29" s="9"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="34" t="s">
+      <c r="A31" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="34" t="s">
+      <c r="B31" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C31" s="34" t="s">
+      <c r="C31" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="36" t="s">
+      <c r="D31" s="46" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="36" t="s">
+      <c r="E31" s="46" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="37"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="44"/>
+      <c r="C32" s="44"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
@@ -12623,28 +17608,28 @@
       <c r="E55" s="19"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="34" t="s">
+      <c r="A57" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B57" s="34" t="s">
+      <c r="B57" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C57" s="34" t="s">
+      <c r="C57" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="D57" s="34" t="s">
+      <c r="D57" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="E57" s="35" t="s">
+      <c r="E57" s="45" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="34"/>
-      <c r="B58" s="34"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="35"/>
+      <c r="A58" s="44"/>
+      <c r="B58" s="44"/>
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="45"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="20">
@@ -12929,13 +17914,13 @@
       <c r="E78"/>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="34" t="s">
+      <c r="A79" s="44" t="s">
         <v>0</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="44" t="s">
         <v>44</v>
       </c>
-      <c r="C79" s="34" t="s">
+      <c r="C79" s="44" t="s">
         <v>45</v>
       </c>
       <c r="D79" s="28" t="s">
@@ -12946,9 +17931,9 @@
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="34"/>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
+      <c r="A80" s="44"/>
+      <c r="B80" s="44"/>
+      <c r="C80" s="44"/>
       <c r="D80" s="28" t="s">
         <v>70</v>
       </c>
@@ -13845,8 +18830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B05941FC-B4AC-4E7B-A18F-1261F9CFD86D}">
   <dimension ref="A1:R85"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="E86" sqref="E86"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C87" sqref="C87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13859,94 +18844,94 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="44" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="44" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>127</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>114</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>134</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>130</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>115</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>138</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>128</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>117</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="A6" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>131</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>116</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>141</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="A7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>132</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>120</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>144</v>
       </c>
     </row>
@@ -13956,38 +18941,38 @@
       </c>
     </row>
     <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A23" s="47"/>
+      <c r="A23" s="34"/>
     </row>
     <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" s="2"/>
-      <c r="B25" s="34" t="s">
+      <c r="B25" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34" t="s">
+      <c r="C25" s="44"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F25" s="34"/>
-      <c r="G25" s="34"/>
-      <c r="H25" s="34" t="s">
+      <c r="F25" s="44"/>
+      <c r="G25" s="44"/>
+      <c r="H25" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="I25" s="34"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="34" t="s">
+      <c r="I25" s="44"/>
+      <c r="J25" s="44"/>
+      <c r="K25" s="44" t="s">
         <v>19</v>
       </c>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34"/>
-      <c r="N25" s="34" t="s">
+      <c r="L25" s="44"/>
+      <c r="M25" s="44"/>
+      <c r="N25" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="O25" s="34"/>
-      <c r="P25" s="34"/>
+      <c r="O25" s="44"/>
+      <c r="P25" s="44"/>
     </row>
     <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
+      <c r="A26" s="49" t="s">
         <v>100</v>
       </c>
       <c r="B26" s="2" t="s">
@@ -14037,7 +19022,7 @@
       </c>
     </row>
     <row r="27" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A27" s="40"/>
+      <c r="A27" s="50"/>
       <c r="B27" s="2">
         <f>B3</f>
         <v>127</v>
@@ -14100,7 +19085,7 @@
       </c>
     </row>
     <row r="28" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
+      <c r="A28" s="51"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -14118,7 +19103,7 @@
       <c r="P28" s="2"/>
     </row>
     <row r="29" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="52" t="s">
         <v>102</v>
       </c>
       <c r="B29" s="2" t="s">
@@ -14184,7 +19169,7 @@
       </c>
     </row>
     <row r="30" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A30" s="42"/>
+      <c r="A30" s="52"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -14265,17 +19250,17 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="38" t="s">
+      <c r="A33" s="48" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="38" t="s">
+      <c r="B33" s="48" t="s">
         <v>97</v>
       </c>
-      <c r="C33" s="38"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="48"/>
+      <c r="D33" s="48"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
+      <c r="A34" s="48"/>
       <c r="B34" t="s">
         <v>94</v>
       </c>
@@ -14354,18 +19339,18 @@
       </c>
     </row>
     <row r="39" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B39" s="43">
+      <c r="B39" s="30">
         <f>N31</f>
         <v>1</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C39" s="31">
         <f>O31</f>
         <v>-12</v>
       </c>
-      <c r="D39" s="44" t="str">
+      <c r="D39" s="31" t="str">
         <f>P31</f>
         <v>N/A</v>
       </c>
@@ -14441,7 +19426,7 @@
         <f t="shared" si="4"/>
         <v>10.594444444444447</v>
       </c>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="34" t="s">
         <v>121</v>
       </c>
     </row>
@@ -14454,20 +19439,20 @@
       <c r="B47" s="15"/>
       <c r="D47" s="15"/>
     </row>
-    <row r="48" spans="1:6" s="48" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="48" t="s">
+    <row r="48" spans="1:6" s="35" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="35" t="s">
         <v>89</v>
       </c>
-      <c r="B48" s="48" t="s">
+      <c r="B48" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="35" t="s">
         <v>124</v>
       </c>
-      <c r="D48" s="48" t="s">
+      <c r="D48" s="35" t="s">
         <v>120</v>
       </c>
-      <c r="E48" s="48" t="s">
+      <c r="E48" s="35" t="s">
         <v>126</v>
       </c>
     </row>
@@ -14747,7 +19732,7 @@
         <v>132</v>
       </c>
       <c r="E85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
   </sheetData>
@@ -14757,12 +19742,12 @@
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="N25:P25"/>
+    <mergeCell ref="K25:M25"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B25:D25"/>
     <mergeCell ref="E25:G25"/>
     <mergeCell ref="H25:J25"/>
-    <mergeCell ref="K25:M25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -14771,11 +19756,1082 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11929F48-7449-42D8-A35A-6EF86739C7EE}">
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="44"/>
+      <c r="B2" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
+      <c r="H2" s="38"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="2">
+        <v>127</v>
+      </c>
+      <c r="C3" s="2">
+        <v>114</v>
+      </c>
+      <c r="D3" s="2">
+        <v>134</v>
+      </c>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="2">
+        <v>130</v>
+      </c>
+      <c r="C4" s="2">
+        <v>115</v>
+      </c>
+      <c r="D4" s="2">
+        <v>138</v>
+      </c>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="2">
+        <v>128</v>
+      </c>
+      <c r="C5" s="2">
+        <v>117</v>
+      </c>
+      <c r="D5" s="2">
+        <v>142</v>
+      </c>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="2">
+        <v>131</v>
+      </c>
+      <c r="C6" s="2">
+        <v>116</v>
+      </c>
+      <c r="D6" s="2">
+        <v>141</v>
+      </c>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="2">
+        <v>132</v>
+      </c>
+      <c r="C7" s="2">
+        <v>120</v>
+      </c>
+      <c r="D7" s="2">
+        <v>144</v>
+      </c>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="38"/>
+      <c r="B8" s="38"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="44" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="44"/>
+      <c r="B10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="2">
+        <v>127</v>
+      </c>
+      <c r="C11" s="2">
+        <v>114</v>
+      </c>
+      <c r="D11" s="2">
+        <v>134</v>
+      </c>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="2">
+        <v>130</v>
+      </c>
+      <c r="C12" s="2">
+        <v>115</v>
+      </c>
+      <c r="D12" s="2">
+        <v>138</v>
+      </c>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B13" s="2">
+        <v>128</v>
+      </c>
+      <c r="C13" s="2">
+        <v>117</v>
+      </c>
+      <c r="D13" s="2">
+        <v>142</v>
+      </c>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B14" s="2">
+        <v>131</v>
+      </c>
+      <c r="C14" s="2">
+        <v>116</v>
+      </c>
+      <c r="D14" s="2">
+        <v>141</v>
+      </c>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B15" s="2">
+        <v>132</v>
+      </c>
+      <c r="C15" s="2">
+        <v>120</v>
+      </c>
+      <c r="D15" s="2">
+        <v>144</v>
+      </c>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="38"/>
+      <c r="D16" s="38"/>
+      <c r="E16" s="38"/>
+      <c r="F16" s="38"/>
+      <c r="G16" s="38"/>
+      <c r="H16" s="38"/>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38" t="s">
+        <v>169</v>
+      </c>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="F18" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="55" t="s">
+        <v>70</v>
+      </c>
+      <c r="H18" s="55" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C19" s="2">
+        <v>127</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38">
+        <v>1.5944444444444461</v>
+      </c>
+      <c r="H19" s="38">
+        <f>C19-G19</f>
+        <v>125.40555555555555</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="2">
+        <v>114</v>
+      </c>
+      <c r="D20" s="2">
+        <f>SUM(C19:C21)</f>
+        <v>375</v>
+      </c>
+      <c r="E20" s="2">
+        <f>D20/3</f>
+        <v>125</v>
+      </c>
+      <c r="F20" s="38">
+        <f>C20-E20</f>
+        <v>-11</v>
+      </c>
+      <c r="G20" s="38">
+        <v>-12.188888888888892</v>
+      </c>
+      <c r="H20" s="38">
+        <f t="shared" ref="H20:H33" si="0">C20-G20</f>
+        <v>126.1888888888889</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C21" s="2">
+        <v>134</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" ref="D21:D32" si="1">SUM(C20:C22)</f>
+        <v>378</v>
+      </c>
+      <c r="E21" s="2">
+        <f t="shared" ref="E21:E32" si="2">D21/3</f>
+        <v>126</v>
+      </c>
+      <c r="F21" s="38">
+        <f t="shared" ref="F21:F32" si="3">C21-E21</f>
+        <v>8</v>
+      </c>
+      <c r="G21" s="38">
+        <v>10.594444444444447</v>
+      </c>
+      <c r="H21" s="38">
+        <f t="shared" si="0"/>
+        <v>123.40555555555555</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="2">
+        <v>130</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="E22" s="2">
+        <f t="shared" si="2"/>
+        <v>126.33333333333333</v>
+      </c>
+      <c r="F22" s="38">
+        <f t="shared" si="3"/>
+        <v>3.6666666666666714</v>
+      </c>
+      <c r="G22" s="38">
+        <v>1.5944444444444461</v>
+      </c>
+      <c r="H22" s="38">
+        <f t="shared" si="0"/>
+        <v>128.40555555555557</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="B23" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="2">
+        <v>115</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="E23" s="2">
+        <f t="shared" si="2"/>
+        <v>127.66666666666667</v>
+      </c>
+      <c r="F23" s="38">
+        <f t="shared" si="3"/>
+        <v>-12.666666666666671</v>
+      </c>
+      <c r="G23" s="38">
+        <v>-12.188888888888892</v>
+      </c>
+      <c r="H23" s="38">
+        <f t="shared" si="0"/>
+        <v>127.1888888888889</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="B24" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C24" s="2">
+        <v>138</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="1"/>
+        <v>381</v>
+      </c>
+      <c r="E24" s="2">
+        <f t="shared" si="2"/>
+        <v>127</v>
+      </c>
+      <c r="F24" s="38">
+        <f t="shared" si="3"/>
+        <v>11</v>
+      </c>
+      <c r="G24" s="38">
+        <v>10.594444444444447</v>
+      </c>
+      <c r="H24" s="38">
+        <f t="shared" si="0"/>
+        <v>127.40555555555555</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C25" s="2">
+        <v>128</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="1"/>
+        <v>383</v>
+      </c>
+      <c r="E25" s="2">
+        <f t="shared" si="2"/>
+        <v>127.66666666666667</v>
+      </c>
+      <c r="F25" s="38">
+        <f t="shared" si="3"/>
+        <v>0.3333333333333286</v>
+      </c>
+      <c r="G25" s="38">
+        <v>1.5944444444444461</v>
+      </c>
+      <c r="H25" s="38">
+        <f t="shared" si="0"/>
+        <v>126.40555555555555</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="B26" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="2">
+        <v>117</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="1"/>
+        <v>387</v>
+      </c>
+      <c r="E26" s="2">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="F26" s="38">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+      <c r="G26" s="38">
+        <v>-12.188888888888892</v>
+      </c>
+      <c r="H26" s="38">
+        <f t="shared" si="0"/>
+        <v>129.1888888888889</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="B27" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C27" s="2">
+        <v>142</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="1"/>
+        <v>390</v>
+      </c>
+      <c r="E27" s="2">
+        <f t="shared" si="2"/>
+        <v>130</v>
+      </c>
+      <c r="F27" s="38">
+        <f t="shared" si="3"/>
+        <v>12</v>
+      </c>
+      <c r="G27" s="38">
+        <v>10.594444444444447</v>
+      </c>
+      <c r="H27" s="38">
+        <f t="shared" si="0"/>
+        <v>131.40555555555557</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C28" s="2">
+        <v>131</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="E28" s="2">
+        <f t="shared" si="2"/>
+        <v>129.66666666666666</v>
+      </c>
+      <c r="F28" s="38">
+        <f t="shared" si="3"/>
+        <v>1.3333333333333428</v>
+      </c>
+      <c r="G28" s="38">
+        <v>1.5944444444444461</v>
+      </c>
+      <c r="H28" s="38">
+        <f t="shared" si="0"/>
+        <v>129.40555555555557</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="B29" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C29" s="2">
+        <v>116</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="1"/>
+        <v>388</v>
+      </c>
+      <c r="E29" s="2">
+        <f t="shared" si="2"/>
+        <v>129.33333333333334</v>
+      </c>
+      <c r="F29" s="38">
+        <f t="shared" si="3"/>
+        <v>-13.333333333333343</v>
+      </c>
+      <c r="G29" s="38">
+        <v>-12.188888888888892</v>
+      </c>
+      <c r="H29" s="38">
+        <f t="shared" si="0"/>
+        <v>128.1888888888889</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="B30" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C30" s="2">
+        <v>141</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="1"/>
+        <v>389</v>
+      </c>
+      <c r="E30" s="2">
+        <f t="shared" si="2"/>
+        <v>129.66666666666666</v>
+      </c>
+      <c r="F30" s="38">
+        <f t="shared" si="3"/>
+        <v>11.333333333333343</v>
+      </c>
+      <c r="G30" s="38">
+        <v>10.594444444444447</v>
+      </c>
+      <c r="H30" s="38">
+        <f t="shared" si="0"/>
+        <v>130.40555555555557</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C31" s="2">
+        <v>132</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="1"/>
+        <v>393</v>
+      </c>
+      <c r="E31" s="2">
+        <f t="shared" si="2"/>
+        <v>131</v>
+      </c>
+      <c r="F31" s="38">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G31" s="38">
+        <v>1.5944444444444461</v>
+      </c>
+      <c r="H31" s="38">
+        <f t="shared" si="0"/>
+        <v>130.40555555555557</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="B32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="2">
+        <v>120</v>
+      </c>
+      <c r="D32" s="2">
+        <f t="shared" si="1"/>
+        <v>396</v>
+      </c>
+      <c r="E32" s="2">
+        <f t="shared" si="2"/>
+        <v>132</v>
+      </c>
+      <c r="F32" s="38">
+        <f t="shared" si="3"/>
+        <v>-12</v>
+      </c>
+      <c r="G32" s="38">
+        <v>-12.188888888888892</v>
+      </c>
+      <c r="H32" s="38">
+        <f t="shared" si="0"/>
+        <v>132.1888888888889</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="B33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="2">
+        <v>144</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="38"/>
+      <c r="G33" s="38">
+        <v>10.594444444444447</v>
+      </c>
+      <c r="H33" s="38">
+        <f t="shared" si="0"/>
+        <v>133.40555555555557</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="38"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="38"/>
+      <c r="F34" s="38"/>
+      <c r="G34" s="38"/>
+      <c r="H34" s="38"/>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="C35" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>176</v>
+      </c>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="38">
+        <v>-11</v>
+      </c>
+      <c r="D36" s="38">
+        <v>8</v>
+      </c>
+      <c r="E36" s="38"/>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B37" s="38">
+        <v>3.6666666666666714</v>
+      </c>
+      <c r="C37" s="38">
+        <v>-12.666666666666671</v>
+      </c>
+      <c r="D37" s="38">
+        <v>11</v>
+      </c>
+      <c r="E37" s="38"/>
+      <c r="F37" s="38"/>
+      <c r="G37" s="38"/>
+      <c r="H37" s="38"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B38" s="38">
+        <v>0.3333333333333286</v>
+      </c>
+      <c r="C38" s="38">
+        <v>-12</v>
+      </c>
+      <c r="D38" s="38">
+        <v>12</v>
+      </c>
+      <c r="E38" s="38"/>
+      <c r="F38" s="38"/>
+      <c r="G38" s="38"/>
+      <c r="H38" s="38"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="38">
+        <v>1.3333333333333428</v>
+      </c>
+      <c r="C39" s="38">
+        <v>-13.333333333333343</v>
+      </c>
+      <c r="D39" s="38">
+        <v>11.333333333333343</v>
+      </c>
+      <c r="E39" s="38"/>
+      <c r="F39" s="38"/>
+      <c r="G39" s="38"/>
+      <c r="H39" s="38"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="38">
+        <v>1</v>
+      </c>
+      <c r="C40" s="38">
+        <v>-12</v>
+      </c>
+      <c r="D40" s="38"/>
+      <c r="E40" s="38"/>
+      <c r="F40" s="38"/>
+      <c r="G40" s="38"/>
+      <c r="H40" s="38"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="55" t="s">
+        <v>30</v>
+      </c>
+      <c r="B41" s="38">
+        <f>SUM(B36:B40)</f>
+        <v>6.3333333333333428</v>
+      </c>
+      <c r="C41" s="38">
+        <f>SUM(C36:C40)</f>
+        <v>-61.000000000000014</v>
+      </c>
+      <c r="D41" s="38">
+        <f>SUM(D36:D40)</f>
+        <v>42.333333333333343</v>
+      </c>
+      <c r="E41" s="38"/>
+      <c r="F41" s="38"/>
+      <c r="G41" s="38"/>
+      <c r="H41" s="38"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42" s="38">
+        <f>B41/COUNT(B37:B40)</f>
+        <v>1.5833333333333357</v>
+      </c>
+      <c r="C42" s="38">
+        <f>C41/COUNT(C36:C40)</f>
+        <v>-12.200000000000003</v>
+      </c>
+      <c r="D42" s="38">
+        <f>D41/COUNT(D36:D40)</f>
+        <v>10.583333333333336</v>
+      </c>
+      <c r="E42" s="38">
+        <f>SUM(B42:D42)</f>
+        <v>-3.3333333333331439E-2</v>
+      </c>
+      <c r="F42" s="38"/>
+      <c r="G42" s="38"/>
+      <c r="H42" s="38"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="55" t="s">
+        <v>103</v>
+      </c>
+      <c r="B43" s="38">
+        <f>E42/3</f>
+        <v>-1.111111111111048E-2</v>
+      </c>
+      <c r="C43" s="38">
+        <f>E42/3</f>
+        <v>-1.111111111111048E-2</v>
+      </c>
+      <c r="D43" s="38">
+        <f>E42/3</f>
+        <v>-1.111111111111048E-2</v>
+      </c>
+      <c r="E43" s="38"/>
+      <c r="F43" s="38"/>
+      <c r="G43" s="38"/>
+      <c r="H43" s="38"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="55" t="s">
+        <v>177</v>
+      </c>
+      <c r="B44" s="38">
+        <f>B42-B43</f>
+        <v>1.5944444444444461</v>
+      </c>
+      <c r="C44" s="38">
+        <f>C42-C43</f>
+        <v>-12.188888888888892</v>
+      </c>
+      <c r="D44" s="38">
+        <f>D42-D43</f>
+        <v>10.594444444444447</v>
+      </c>
+      <c r="E44" s="38">
+        <f>SUM(B44:D44)</f>
+        <v>0</v>
+      </c>
+      <c r="F44" s="38"/>
+      <c r="G44" s="38"/>
+      <c r="H44" s="38"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A45" s="38"/>
+      <c r="B45" s="38"/>
+      <c r="C45" s="38"/>
+      <c r="D45" s="38"/>
+      <c r="E45" s="38"/>
+      <c r="F45" s="38"/>
+      <c r="G45" s="38"/>
+      <c r="H45" s="38"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A46" s="38"/>
+      <c r="B46" s="38"/>
+      <c r="C46" s="38"/>
+      <c r="D46" s="38"/>
+      <c r="E46" s="38"/>
+      <c r="F46" s="38"/>
+      <c r="G46" s="38"/>
+      <c r="H46" s="38"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="38"/>
+      <c r="D47" s="38">
+        <v>1.5944444444444461</v>
+      </c>
+      <c r="E47" s="38">
+        <v>-12.188888888888892</v>
+      </c>
+      <c r="F47" s="38">
+        <v>10.594444444444447</v>
+      </c>
+      <c r="G47" s="38"/>
+      <c r="H47" s="38"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="38"/>
+      <c r="B48" s="38"/>
+      <c r="C48" s="38"/>
+      <c r="D48" s="38"/>
+      <c r="E48" s="38"/>
+      <c r="F48" s="38"/>
+      <c r="G48" s="38"/>
+      <c r="H48" s="38"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B49" s="38"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="38"/>
+      <c r="E49" s="38"/>
+      <c r="F49" s="38"/>
+      <c r="G49" s="38"/>
+      <c r="H49" s="38"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="38" t="s">
+        <v>178</v>
+      </c>
+      <c r="B50" s="38">
+        <f>(E32-E20)/(COUNT(E20:E32)-1)</f>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C50" s="38"/>
+      <c r="D50" s="38"/>
+      <c r="E50" s="38"/>
+      <c r="F50" s="38"/>
+      <c r="G50" s="38"/>
+      <c r="H50" s="38"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="38"/>
+      <c r="B51" s="38"/>
+      <c r="C51" s="38"/>
+      <c r="D51" s="38"/>
+      <c r="E51" s="38"/>
+      <c r="F51" s="38"/>
+      <c r="G51" s="38"/>
+      <c r="H51" s="38"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="38"/>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+      <c r="D52" s="38"/>
+      <c r="E52" s="38"/>
+      <c r="F52" s="38"/>
+      <c r="G52" s="38"/>
+      <c r="H52" s="38"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="B53" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="C53" s="38"/>
+      <c r="D53" s="38"/>
+      <c r="E53" s="38"/>
+      <c r="F53" s="38"/>
+      <c r="G53" s="38"/>
+      <c r="H53" s="38"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="38"/>
+      <c r="B54" s="38">
+        <f>E32+2*(B50)+B44</f>
+        <v>134.76111111111109</v>
+      </c>
+      <c r="C54" s="38"/>
+      <c r="D54" s="38"/>
+      <c r="E54" s="38"/>
+      <c r="F54" s="38"/>
+      <c r="G54" s="38"/>
+      <c r="H54" s="38"/>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38" t="s">
+        <v>179</v>
+      </c>
+      <c r="C55" s="38"/>
+      <c r="D55" s="38"/>
+      <c r="E55" s="38"/>
+      <c r="F55" s="38"/>
+      <c r="G55" s="38"/>
+      <c r="H55" s="38"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="B1:D1"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:D9"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490C645B-C46A-4F3D-867D-2C3AB22EA5BD}">
-  <dimension ref="A1:XFD48"/>
+  <dimension ref="A1:XFD57"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14786,71 +20842,92 @@
   <sheetData>
     <row r="1" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
     </row>
     <row r="3" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="A3" s="38" t="s">
         <v>0</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="48" t="s">
         <v>133</v>
       </c>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38" t="s">
-        <v>141</v>
-      </c>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G3" s="48"/>
+      <c r="H3" s="48"/>
+      <c r="I3" s="48"/>
+      <c r="J3" s="39" t="s">
+        <v>142</v>
+      </c>
+      <c r="K3" s="39" t="s">
         <v>54</v>
       </c>
+      <c r="L3" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="M3" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="4" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="38">
         <v>2008</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="53">
         <v>1408</v>
       </c>
-      <c r="D4" s="49"/>
-      <c r="E4" s="49"/>
-      <c r="F4" s="49"/>
-      <c r="G4" s="49"/>
-      <c r="H4" s="49"/>
-      <c r="I4" s="49"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38">
+        <v>-1737</v>
+      </c>
+      <c r="M4">
+        <f>C4-L4</f>
+        <v>3145</v>
+      </c>
     </row>
     <row r="5" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
+      <c r="A5" s="38"/>
+      <c r="B5" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="53">
         <v>768</v>
       </c>
-      <c r="D5" s="49"/>
-      <c r="E5" s="49"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="50"/>
-      <c r="H5" s="50"/>
-      <c r="I5" s="50"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
+      <c r="H5" s="54"/>
+      <c r="I5" s="54"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="38">
+        <v>-2485</v>
+      </c>
+      <c r="M5" s="38">
+        <f t="shared" ref="M5:M15" si="0">C5-L5</f>
+        <v>3253</v>
+      </c>
       <c r="N5" s="1"/>
       <c r="O5" s="1"/>
       <c r="P5" s="1"/>
@@ -31224,221 +37301,302 @@
       <c r="XFD5" s="1"/>
     </row>
     <row r="6" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C6" s="49">
+      <c r="C6" s="53">
         <v>7040</v>
       </c>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="1">
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="53"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="53"/>
+      <c r="I6" s="53"/>
+      <c r="J6" s="39">
         <v>2792</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="38">
         <f>C6-J6</f>
         <v>4248</v>
       </c>
+      <c r="L6" s="38">
+        <v>4759</v>
+      </c>
+      <c r="M6" s="38">
+        <f t="shared" si="0"/>
+        <v>2281</v>
+      </c>
     </row>
     <row r="7" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="A7" s="38"/>
+      <c r="B7" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="49">
+      <c r="C7" s="53">
         <v>1984</v>
       </c>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="1">
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="53"/>
+      <c r="G7" s="53"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
+      <c r="J7" s="39">
         <v>2896</v>
       </c>
-      <c r="K7">
-        <f t="shared" ref="K7:K13" si="0">C7-J7</f>
+      <c r="K7" s="38">
+        <f t="shared" ref="K7:K13" si="1">C7-J7</f>
         <v>-912</v>
       </c>
+      <c r="L7" s="38">
+        <v>-537</v>
+      </c>
+      <c r="M7" s="38">
+        <f t="shared" si="0"/>
+        <v>2521</v>
+      </c>
     </row>
     <row r="8" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="38">
         <v>2009</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C8" s="49">
+      <c r="C8" s="53">
         <v>1344</v>
       </c>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="1">
+      <c r="D8" s="53"/>
+      <c r="E8" s="53"/>
+      <c r="F8" s="53"/>
+      <c r="G8" s="53"/>
+      <c r="H8" s="53"/>
+      <c r="I8" s="53"/>
+      <c r="J8" s="39">
         <v>3328</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="38">
+        <f t="shared" si="1"/>
+        <v>-1984</v>
+      </c>
+      <c r="L8" s="38">
+        <v>-1737</v>
+      </c>
+      <c r="M8" s="38">
         <f t="shared" si="0"/>
-        <v>-1984</v>
+        <v>3081</v>
       </c>
     </row>
     <row r="9" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="A9" s="38"/>
+      <c r="B9" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C9" s="49">
+      <c r="C9" s="53">
         <v>1664</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="1">
+      <c r="D9" s="53"/>
+      <c r="E9" s="53"/>
+      <c r="F9" s="53"/>
+      <c r="G9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="53"/>
+      <c r="J9" s="39">
         <v>3960</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="38">
+        <f t="shared" si="1"/>
+        <v>-2296</v>
+      </c>
+      <c r="L9" s="38">
+        <v>-2485</v>
+      </c>
+      <c r="M9" s="38">
         <f t="shared" si="0"/>
-        <v>-2296</v>
+        <v>4149</v>
       </c>
     </row>
     <row r="10" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C10" s="49">
+      <c r="C10" s="53">
         <v>9600</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="1">
+      <c r="D10" s="53"/>
+      <c r="E10" s="53"/>
+      <c r="F10" s="53"/>
+      <c r="G10" s="53"/>
+      <c r="H10" s="53"/>
+      <c r="I10" s="53"/>
+      <c r="J10" s="39">
         <v>4504</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="38">
+        <f t="shared" si="1"/>
+        <v>5096</v>
+      </c>
+      <c r="L10" s="38">
+        <v>4759</v>
+      </c>
+      <c r="M10" s="38">
         <f t="shared" si="0"/>
-        <v>5096</v>
+        <v>4841</v>
       </c>
     </row>
     <row r="11" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C11" s="49">
+      <c r="C11" s="53">
         <v>4480</v>
       </c>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="1">
+      <c r="D11" s="53"/>
+      <c r="E11" s="53"/>
+      <c r="F11" s="53"/>
+      <c r="G11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="53"/>
+      <c r="J11" s="39">
         <v>4816</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="38">
+        <f t="shared" si="1"/>
+        <v>-336</v>
+      </c>
+      <c r="L11" s="38">
+        <v>-537</v>
+      </c>
+      <c r="M11" s="38">
         <f t="shared" si="0"/>
-        <v>-336</v>
+        <v>5017</v>
       </c>
     </row>
     <row r="12" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="38">
         <v>2010</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="38" t="s">
         <v>134</v>
       </c>
-      <c r="C12" s="49">
+      <c r="C12" s="53">
         <v>3200</v>
       </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="1">
+      <c r="D12" s="53"/>
+      <c r="E12" s="53"/>
+      <c r="F12" s="53"/>
+      <c r="G12" s="53"/>
+      <c r="H12" s="53"/>
+      <c r="I12" s="53"/>
+      <c r="J12" s="39">
         <v>4864</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="38">
+        <f t="shared" si="1"/>
+        <v>-1664</v>
+      </c>
+      <c r="L12" s="38">
+        <v>-1737</v>
+      </c>
+      <c r="M12" s="38">
         <f t="shared" si="0"/>
-        <v>-1664</v>
+        <v>4937</v>
       </c>
     </row>
     <row r="13" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="38" t="s">
         <v>135</v>
       </c>
-      <c r="C13" s="49">
+      <c r="C13" s="53">
         <v>2304</v>
       </c>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="G13" s="49"/>
-      <c r="H13" s="49"/>
-      <c r="I13" s="49"/>
-      <c r="J13" s="1">
+      <c r="D13" s="53"/>
+      <c r="E13" s="53"/>
+      <c r="F13" s="53"/>
+      <c r="G13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="53"/>
+      <c r="J13" s="39">
         <v>5152</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="38">
+        <f t="shared" si="1"/>
+        <v>-2848</v>
+      </c>
+      <c r="L13" s="38">
+        <v>-2485</v>
+      </c>
+      <c r="M13" s="38">
         <f t="shared" si="0"/>
-        <v>-2848</v>
+        <v>4789</v>
       </c>
     </row>
     <row r="14" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="A14" s="38"/>
+      <c r="B14" s="38" t="s">
         <v>136</v>
       </c>
-      <c r="C14" s="49">
+      <c r="C14" s="53">
         <v>9344</v>
       </c>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
-      <c r="G14" s="49"/>
-      <c r="H14" s="49"/>
-      <c r="I14" s="49"/>
-      <c r="J14" s="1"/>
+      <c r="D14" s="53"/>
+      <c r="E14" s="53"/>
+      <c r="F14" s="53"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="53"/>
+      <c r="I14" s="53"/>
+      <c r="J14" s="39"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38">
+        <v>4759</v>
+      </c>
+      <c r="M14" s="38">
+        <f t="shared" si="0"/>
+        <v>4585</v>
+      </c>
     </row>
     <row r="15" spans="1:16384" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38" t="s">
         <v>137</v>
       </c>
-      <c r="C15" s="49">
+      <c r="C15" s="53">
         <v>7040</v>
       </c>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
-      <c r="G15" s="49"/>
-      <c r="H15" s="49"/>
-      <c r="I15" s="49"/>
+      <c r="D15" s="53"/>
+      <c r="E15" s="53"/>
+      <c r="F15" s="53"/>
+      <c r="G15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="53"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38">
+        <v>-537</v>
+      </c>
+      <c r="M15" s="38">
+        <f t="shared" si="0"/>
+        <v>7577</v>
+      </c>
     </row>
     <row r="16" spans="1:16384" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>138</v>
+        <v>182</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -31479,7 +37637,7 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B40" s="1"/>
       <c r="C40" s="1"/>
@@ -31491,12 +37649,12 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
-      <c r="B41" s="38" t="s">
+      <c r="B41" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C41" s="38"/>
-      <c r="D41" s="38"/>
-      <c r="E41" s="38"/>
+      <c r="C41" s="48"/>
+      <c r="D41" s="48"/>
+      <c r="E41" s="48"/>
       <c r="F41" s="1"/>
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
@@ -31577,15 +37735,15 @@
         <v>-1824</v>
       </c>
       <c r="C46">
-        <f t="shared" ref="C46:E46" si="1">AVERAGE(C43:C45)</f>
+        <f t="shared" ref="C46:E46" si="2">AVERAGE(C43:C45)</f>
         <v>-2572</v>
       </c>
       <c r="D46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>4672</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>-624</v>
       </c>
       <c r="F46">
@@ -31616,23 +37774,88 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48">
-        <f>SUM(B46:B47)</f>
-        <v>-1911</v>
-      </c>
-      <c r="C48">
-        <f t="shared" ref="C48:E48" si="2">SUM(C46:C47)</f>
-        <v>-2659</v>
-      </c>
-      <c r="D48">
-        <f t="shared" si="2"/>
-        <v>4585</v>
-      </c>
-      <c r="E48">
-        <f t="shared" si="2"/>
-        <v>-711</v>
+        <f>B46-B47</f>
+        <v>-1737</v>
+      </c>
+      <c r="C48" s="38">
+        <f t="shared" ref="C48:E48" si="3">C46-C47</f>
+        <v>-2485</v>
+      </c>
+      <c r="D48" s="38">
+        <f t="shared" si="3"/>
+        <v>4759</v>
+      </c>
+      <c r="E48" s="38">
+        <f t="shared" si="3"/>
+        <v>-537</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="39" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" s="38" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="38" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="38"/>
+      <c r="C52" s="38"/>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="38" t="s">
+        <v>180</v>
+      </c>
+      <c r="B53" s="38">
+        <f>(I16-I9)/(COUNT(I9:I16)-1)</f>
+        <v>0</v>
+      </c>
+      <c r="C53" s="38"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="38">
+        <v>2011</v>
+      </c>
+      <c r="B54" s="38" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="56">
+        <f>I16+3*B53+K16</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="38"/>
+      <c r="B55" s="38" t="s">
+        <v>135</v>
+      </c>
+      <c r="C55" s="56">
+        <f>I16+4*B53+C43</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="38"/>
+      <c r="B56" s="38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C56" s="56">
+        <f>I16+5*B53+D43</f>
+        <v>4248</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="38"/>
+      <c r="B57" s="38" t="s">
+        <v>137</v>
+      </c>
+      <c r="C57" s="56">
+        <f>I16+6*B53+E43</f>
+        <v>-912</v>
       </c>
     </row>
   </sheetData>
@@ -31644,872 +37867,28 @@
     <mergeCell ref="C11:E11"/>
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C12:E12"/>
     <mergeCell ref="F11:I11"/>
     <mergeCell ref="F12:I12"/>
     <mergeCell ref="F13:I13"/>
     <mergeCell ref="F14:I14"/>
     <mergeCell ref="F15:I15"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F10:I10"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C10:E10"/>
     <mergeCell ref="F3:I3"/>
     <mergeCell ref="F4:I4"/>
     <mergeCell ref="F5:I5"/>
     <mergeCell ref="F6:I6"/>
     <mergeCell ref="F7:I7"/>
-    <mergeCell ref="F8:I8"/>
-    <mergeCell ref="F9:I9"/>
-    <mergeCell ref="F10:I10"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="C4:E4"/>
     <mergeCell ref="C6:E6"/>
+    <mergeCell ref="F8:I8"/>
+    <mergeCell ref="F9:I9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C3F2D3D-F311-44E1-8E23-268AB7BB99F8}">
-  <dimension ref="A1:P47"/>
-  <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C48" sqref="C48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="27.85546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1</v>
-      </c>
-      <c r="B4">
-        <v>306</v>
-      </c>
-      <c r="C4">
-        <v>309</v>
-      </c>
-      <c r="D4">
-        <v>310</v>
-      </c>
-      <c r="E4">
-        <v>306</v>
-      </c>
-      <c r="F4">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2</v>
-      </c>
-      <c r="B5">
-        <v>302</v>
-      </c>
-      <c r="C5">
-        <v>310</v>
-      </c>
-      <c r="D5">
-        <v>312</v>
-      </c>
-      <c r="E5">
-        <v>305</v>
-      </c>
-      <c r="F5">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>3</v>
-      </c>
-      <c r="B6">
-        <v>308</v>
-      </c>
-      <c r="C6">
-        <v>315</v>
-      </c>
-      <c r="D6">
-        <v>317</v>
-      </c>
-      <c r="E6">
-        <v>317</v>
-      </c>
-      <c r="F6">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>105</v>
-      </c>
-      <c r="B9" s="38">
-        <v>1</v>
-      </c>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38">
-        <v>2</v>
-      </c>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38">
-        <v>3</v>
-      </c>
-      <c r="M9" s="38"/>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" t="s">
-        <v>18</v>
-      </c>
-      <c r="E10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F10" t="s">
-        <v>20</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" t="s">
-        <v>17</v>
-      </c>
-      <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K10" t="s">
-        <v>20</v>
-      </c>
-      <c r="L10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M10" t="s">
-        <v>17</v>
-      </c>
-      <c r="N10" t="s">
-        <v>18</v>
-      </c>
-      <c r="O10" t="s">
-        <v>19</v>
-      </c>
-      <c r="P10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>107</v>
-      </c>
-      <c r="B11">
-        <f t="shared" ref="B11:F11" si="0">B4</f>
-        <v>306</v>
-      </c>
-      <c r="C11">
-        <f t="shared" si="0"/>
-        <v>309</v>
-      </c>
-      <c r="D11">
-        <f t="shared" si="0"/>
-        <v>310</v>
-      </c>
-      <c r="E11">
-        <f t="shared" si="0"/>
-        <v>306</v>
-      </c>
-      <c r="F11">
-        <f t="shared" si="0"/>
-        <v>312</v>
-      </c>
-      <c r="G11">
-        <f t="shared" ref="G11:K11" si="1">B5</f>
-        <v>302</v>
-      </c>
-      <c r="H11">
-        <f t="shared" si="1"/>
-        <v>310</v>
-      </c>
-      <c r="I11">
-        <f t="shared" si="1"/>
-        <v>312</v>
-      </c>
-      <c r="J11">
-        <f t="shared" si="1"/>
-        <v>305</v>
-      </c>
-      <c r="K11">
-        <f t="shared" si="1"/>
-        <v>314</v>
-      </c>
-      <c r="L11">
-        <f t="shared" ref="L11:P11" si="2">B6</f>
-        <v>308</v>
-      </c>
-      <c r="M11">
-        <f t="shared" si="2"/>
-        <v>315</v>
-      </c>
-      <c r="N11">
-        <f t="shared" si="2"/>
-        <v>317</v>
-      </c>
-      <c r="O11">
-        <f t="shared" si="2"/>
-        <v>317</v>
-      </c>
-      <c r="P11">
-        <f t="shared" si="2"/>
-        <v>313</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="43" t="s">
-        <v>108</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="43">
-        <f>SUM(B11:F11)/5</f>
-        <v>308.60000000000002</v>
-      </c>
-      <c r="E12" s="43">
-        <f t="shared" ref="E12:M12" si="3">SUM(C11:G11)/5</f>
-        <v>307.8</v>
-      </c>
-      <c r="F12" s="43">
-        <f t="shared" si="3"/>
-        <v>308</v>
-      </c>
-      <c r="G12" s="43">
-        <f t="shared" si="3"/>
-        <v>308.39999999999998</v>
-      </c>
-      <c r="H12" s="43">
-        <f t="shared" si="3"/>
-        <v>308.2</v>
-      </c>
-      <c r="I12" s="43">
-        <f t="shared" si="3"/>
-        <v>308.60000000000002</v>
-      </c>
-      <c r="J12" s="43">
-        <f t="shared" si="3"/>
-        <v>309.8</v>
-      </c>
-      <c r="K12" s="43">
-        <f t="shared" si="3"/>
-        <v>310.8</v>
-      </c>
-      <c r="L12" s="43">
-        <f t="shared" si="3"/>
-        <v>311.8</v>
-      </c>
-      <c r="M12" s="43">
-        <f t="shared" si="3"/>
-        <v>314.2</v>
-      </c>
-      <c r="N12" s="43">
-        <f>SUM(L11:P11)/5</f>
-        <v>314</v>
-      </c>
-      <c r="O12" s="43" t="s">
-        <v>24</v>
-      </c>
-      <c r="P12" s="43" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="13" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="45" t="e">
-        <f>B11-B12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C13" s="45" t="e">
-        <f t="shared" ref="C13:P13" si="4">C11-C12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D13" s="45">
-        <f t="shared" si="4"/>
-        <v>1.3999999999999773</v>
-      </c>
-      <c r="E13" s="45">
-        <f t="shared" si="4"/>
-        <v>-1.8000000000000114</v>
-      </c>
-      <c r="F13" s="45">
-        <f t="shared" si="4"/>
-        <v>4</v>
-      </c>
-      <c r="G13" s="45">
-        <f t="shared" si="4"/>
-        <v>-6.3999999999999773</v>
-      </c>
-      <c r="H13" s="45">
-        <f t="shared" si="4"/>
-        <v>1.8000000000000114</v>
-      </c>
-      <c r="I13" s="45">
-        <f t="shared" si="4"/>
-        <v>3.3999999999999773</v>
-      </c>
-      <c r="J13" s="45">
-        <f t="shared" si="4"/>
-        <v>-4.8000000000000114</v>
-      </c>
-      <c r="K13" s="45">
-        <f t="shared" si="4"/>
-        <v>3.1999999999999886</v>
-      </c>
-      <c r="L13" s="45">
-        <f t="shared" si="4"/>
-        <v>-3.8000000000000114</v>
-      </c>
-      <c r="M13" s="45">
-        <f t="shared" si="4"/>
-        <v>0.80000000000001137</v>
-      </c>
-      <c r="N13" s="45">
-        <f t="shared" si="4"/>
-        <v>3</v>
-      </c>
-      <c r="O13" s="45" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="P13" s="45" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" s="38" t="s">
-        <v>89</v>
-      </c>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="15">
-        <v>1</v>
-      </c>
-      <c r="B17" t="e">
-        <f t="shared" ref="B17:F17" si="5">B13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C17" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D17">
-        <f t="shared" si="5"/>
-        <v>1.3999999999999773</v>
-      </c>
-      <c r="E17">
-        <f t="shared" si="5"/>
-        <v>-1.8000000000000114</v>
-      </c>
-      <c r="F17">
-        <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="15">
-        <v>2</v>
-      </c>
-      <c r="B18">
-        <f t="shared" ref="B18:F18" si="6">G13</f>
-        <v>-6.3999999999999773</v>
-      </c>
-      <c r="C18">
-        <f t="shared" si="6"/>
-        <v>1.8000000000000114</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="6"/>
-        <v>3.3999999999999773</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="6"/>
-        <v>-4.8000000000000114</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="6"/>
-        <v>3.1999999999999886</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="15">
-        <v>3</v>
-      </c>
-      <c r="B19">
-        <f t="shared" ref="B19:F19" si="7">L13</f>
-        <v>-3.8000000000000114</v>
-      </c>
-      <c r="C19">
-        <f t="shared" si="7"/>
-        <v>0.80000000000001137</v>
-      </c>
-      <c r="D19">
-        <f t="shared" si="7"/>
-        <v>3</v>
-      </c>
-      <c r="E19" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F19" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B20">
-        <f>AVERAGE(B18:B19)</f>
-        <v>-5.0999999999999943</v>
-      </c>
-      <c r="C20">
-        <f>AVERAGE(C18:C19)</f>
-        <v>1.3000000000000114</v>
-      </c>
-      <c r="D20">
-        <f>AVERAGE(D17:D19)</f>
-        <v>2.599999999999985</v>
-      </c>
-      <c r="E20">
-        <f>AVERAGE(E17:E18)</f>
-        <v>-3.3000000000000114</v>
-      </c>
-      <c r="F20">
-        <f>AVERAGE(F17:F18)</f>
-        <v>3.5999999999999943</v>
-      </c>
-      <c r="G20">
-        <f>SUM(B20:F20)</f>
-        <v>-0.90000000000001457</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>32</v>
-      </c>
-      <c r="B21">
-        <f>G20/5</f>
-        <v>-0.18000000000000291</v>
-      </c>
-      <c r="C21">
-        <f>$B$21</f>
-        <v>-0.18000000000000291</v>
-      </c>
-      <c r="D21">
-        <f>$B$21</f>
-        <v>-0.18000000000000291</v>
-      </c>
-      <c r="E21">
-        <f>$B$21</f>
-        <v>-0.18000000000000291</v>
-      </c>
-      <c r="F21">
-        <f>$B$21</f>
-        <v>-0.18000000000000291</v>
-      </c>
-      <c r="G21">
-        <f>SUM(B21:F21)</f>
-        <v>-0.90000000000001457</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22">
-        <f>B20-B21</f>
-        <v>-4.919999999999991</v>
-      </c>
-      <c r="C22">
-        <f t="shared" ref="C22:F22" si="8">C20-C21</f>
-        <v>1.4800000000000142</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="8"/>
-        <v>2.7799999999999878</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="8"/>
-        <v>-3.1200000000000085</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="8"/>
-        <v>3.7799999999999971</v>
-      </c>
-      <c r="G22">
-        <f>SUM(B22:F22)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="15"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="46" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="15"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="15" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>105</v>
-      </c>
-      <c r="B27" t="s">
-        <v>89</v>
-      </c>
-      <c r="C27" t="s">
-        <v>107</v>
-      </c>
-      <c r="D27" t="s">
-        <v>115</v>
-      </c>
-      <c r="E27" s="15" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="38">
-        <v>2</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28">
-        <v>302</v>
-      </c>
-      <c r="D28">
-        <v>-4.919999999999991</v>
-      </c>
-      <c r="E28">
-        <f t="shared" ref="E28:E37" si="9">C28-D28</f>
-        <v>306.92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29">
-        <v>310</v>
-      </c>
-      <c r="D29">
-        <v>1.4800000000000142</v>
-      </c>
-      <c r="E29">
-        <f t="shared" si="9"/>
-        <v>308.52</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="38"/>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>312</v>
-      </c>
-      <c r="D30">
-        <v>2.7799999999999878</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="9"/>
-        <v>309.22000000000003</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="38"/>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>305</v>
-      </c>
-      <c r="D31">
-        <v>-3.1200000000000085</v>
-      </c>
-      <c r="E31">
-        <f t="shared" si="9"/>
-        <v>308.12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="38"/>
-      <c r="B32" t="s">
-        <v>20</v>
-      </c>
-      <c r="C32">
-        <v>314</v>
-      </c>
-      <c r="D32">
-        <v>3.7799999999999971</v>
-      </c>
-      <c r="E32">
-        <f t="shared" si="9"/>
-        <v>310.22000000000003</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="38">
-        <v>3</v>
-      </c>
-      <c r="B33" t="s">
-        <v>16</v>
-      </c>
-      <c r="C33">
-        <v>308</v>
-      </c>
-      <c r="D33">
-        <v>-4.919999999999991</v>
-      </c>
-      <c r="E33">
-        <f t="shared" si="9"/>
-        <v>312.92</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="38"/>
-      <c r="B34" t="s">
-        <v>17</v>
-      </c>
-      <c r="C34">
-        <v>315</v>
-      </c>
-      <c r="D34">
-        <v>1.4800000000000142</v>
-      </c>
-      <c r="E34">
-        <f t="shared" si="9"/>
-        <v>313.52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="38"/>
-      <c r="B35" t="s">
-        <v>18</v>
-      </c>
-      <c r="C35">
-        <v>317</v>
-      </c>
-      <c r="D35">
-        <v>2.7799999999999878</v>
-      </c>
-      <c r="E35">
-        <f t="shared" si="9"/>
-        <v>314.22000000000003</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="38"/>
-      <c r="B36" t="s">
-        <v>19</v>
-      </c>
-      <c r="C36">
-        <v>317</v>
-      </c>
-      <c r="D36">
-        <v>-3.1200000000000085</v>
-      </c>
-      <c r="E36">
-        <f t="shared" si="9"/>
-        <v>320.12</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="38"/>
-      <c r="B37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37">
-        <v>313</v>
-      </c>
-      <c r="D37">
-        <v>3.7799999999999971</v>
-      </c>
-      <c r="E37">
-        <f t="shared" si="9"/>
-        <v>309.22000000000003</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="46" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B42">
-        <f>(N12-D12)/(COUNT(D12:N12)-1)</f>
-        <v>0.5399999999999977</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-      <c r="B45">
-        <f>N12+(B42*3)+B22</f>
-        <v>310.7</v>
-      </c>
-      <c r="C45" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-      <c r="B46">
-        <f>N12+(B42*4)+C22</f>
-        <v>317.64</v>
-      </c>
-      <c r="C46" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-      <c r="B47">
-        <f>N12+(B42*4)+D22</f>
-        <v>318.93999999999994</v>
-      </c>
-      <c r="C47" t="s">
-        <v>147</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A28:A32"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="G9:K9"/>
-    <mergeCell ref="L9:P9"/>
-    <mergeCell ref="B15:F15"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>